--- a/dataset/pairs/method_no_hint/prefered_rejected_pairs_part9.xlsx
+++ b/dataset/pairs/method_no_hint/prefered_rejected_pairs_part9.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>d6bb8938-27a0-4fed-930a-8f5ee71de81d</t>
+          <t>کدام یک از موارد زیر با اجسام هیالین مالوری مرتبط نیست؟</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -515,7 +515,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>229e499d-bc82-46ce-9313-c493ba20324b</t>
+          <t>محیط cled در کدام یک از موارد زیر بهتر از محیط مککانکی برای تشخیص عفونت ادراری است؟ (aiims nov. 2020)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -565,7 +565,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>743beda7-7147-4c6e-bac9-fac4787969f4</t>
+          <t>کدام یک از سویه‌های زیر آنفلوانزا باعث آنفلوانزای خوکی می‌شود که تظاهرات سیستمیک جدی ایجاد می‌کند؟</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1fb64742-295b-4742-a358-4ea02c3d2901</t>
+          <t>پوشش اپیتلیال مجرای ادرار زیر محل باز شدن مجاری انزالی چیست؟</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -668,7 +668,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9b3918b0-8dcb-4429-8cb3-4e2adef4b1b1</t>
+          <t>در کریپتورکیدیسم، تغییرات بافت‌شناسی مشخصه در بیضه در چه زمانی ظاهر می‌شود؟</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -722,7 +722,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>d7ff76be-eccf-4ec8-b290-078ad163c0a0</t>
+          <t>کدام یک از موارد زیر نشان‌دهنده توسعه لنفوم در سندرم شوگرن نیست؟</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -774,7 +774,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>e91cdc09-7f98-4fec-89b4-1a5180db631c</t>
+          <t>کدام یک از عبارات زیر در مورد پیوری در کودکان نادرست است؟</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -824,7 +824,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>be2ccb7e-de3f-4b7e-b8ba-ee87f1f9ea1c</t>
+          <t>یک زن ۲۵ ساله با سابقه زایمان قبلی بریچ واژینال از یک نوزاد ترم و زنده، اکنون با حاملگی ترم و وضعیت بریچ مراجعه می‌کند. بهترین گزینه چیست؟</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -877,7 +877,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7e4a6adc-6373-4212-868d-ff303c525fc3</t>
+          <t>ویتامینی که در شیر مادر وجود ندارد: مارس 2009، مارس 2013 (e)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>97ded530-2b50-496b-ad98-9ff3ea43557e</t>
+          <t>بیماری(های) گرانولوماتوز شامل موارد زیر است/هستند - الف) لیکن پلانوس ب) هیستوپلاسموز ج) سارکوئیدوز د) آزبستوز</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -978,7 +978,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>a1388e95-35b7-4c0f-b70d-76637b6517e4</t>
+          <t>کدام گزینه در مورد دیورتیکولیت صحیح است؟  
+الف) در هر سنی رخ می‌دهد  
+ب) اغلب به صورت تصادفی در حین عمل تشخیص داده می‌شود  
+ج) بیماران جوان بیماری تهاجمی‌تری دارند  
+د) درگیری کولون چپ شایع‌تر است  
+ه) عمل جراحی برای همه بیماران لازم نیست</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1042,7 +1047,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>77f0eb34-01ea-4582-b853-653e500b8812</t>
+          <t>کدام یک از جراحی های زیر برای درمان بی اختیاری استرسی ادرار (sui) انجام نمی شود؟</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1092,7 +1097,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>755c474c-f2d1-4064-9465-1093c6b6311c</t>
+          <t>مجموعه مایکوباکتریوم توبرکلوزیس شامل همه موارد زیر به جز کدام است؟</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1148,7 +1153,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2efdce9f-19cf-4b0b-8f13-34eeafca8f35</t>
+          <t>یک مرد ۶۰ ساله با هایپرپیگمانتاسیون پوستی، چاقی مرکزی، استریای بنفش و میوپاتی پروگزیمال مراجعه کرده است. فشار خون او ۱۶۰/۹۰ mmhg است. آزمایشات نشاندهنده آلکالوز متابولیک هیپوکالمیک هستند. کدام یک از عبارات زیر در مورد این وضعیت صحیح است؟</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1198,7 +1203,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7afa64b5-16e8-40b7-9dff-7d9098570461</t>
+          <t>یک بیمار دختر ۱۵ ساله با درد در عضلات ساق پا هنگام ورزش مراجعه می‌کند. بررسی‌های معمول ادرار بورگوندی رنگ (نمونه گرفته شده پس از ورزش) را نشان می‌دهد. آسیب‌شناسی بافت عضله نشان‌دهنده رسوبات بیش‌ازحد گلیکوژن است. کدام یک از روش‌های درمانی زیر نباید در این بیمار دنبال شود؟</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1249,7 +1254,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>c0d9165b-284c-487d-98a3-d161b67455ae</t>
+          <t>تست گرتاژ برای تشخیص کدام بیماری استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1307,7 +1312,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>43dbd144-5952-4554-be5c-fff5067fd337</t>
+          <t>ویژگی هماتوم ساب دورال کدام است؟</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1356,7 +1361,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>a60e8ba8-61e6-4591-b97d-7297216fddf5</t>
+          <t>در مورد t. pallidum کدام گزینه نادرست است؟</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1406,7 +1411,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>54dbe065-6bb4-4bd2-8244-e2ae0c6d191c</t>
+          <t>یک مرد ۴۵ ساله پس از سقوط از دوچرخه در بیمارستان تحت درمان قرار می‌گیرد. بررسی رادیوگرافی نشان‌دهنده شکستگی هر دو استخوان درشت‌نی و نازک‌نی است. در معاینه فیزیکی، بیمار دچار افتادگی پا (foot drop) شده اما برگشت‌دهی پا (eversion) طبیعی است. کدام یک از اعصاب زیر به احتمال زیاد آسیب دیده است؟</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1459,7 +1464,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>a6c73a3e-97d1-4e2d-a7f0-654966afc99d</t>
+          <t>یک پسر 20 ساله پس از تصادف با دیسترس تنفسی و افت فشار خون به اورژانس آورده می‌شود. او دارای آمفیزم زیرجلدی و عدم ورود هوا در سمت راست است. بهترین اقدام بعدی در مدیریت چیست؟</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1507,7 +1512,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2c80cbd3-c60b-450b-ac34-e6518f81f7ad</t>
+          <t>یک پسر با شکایت از هیپواستزی و آتروفی برجستگی تنار مراجعه می‌کند. عصبی که به احتمال زیاد در این بیمار آسیب دیده است -</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1569,7 +1574,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>f99ce7d6-2754-4ff1-a870-b8e25b4c016b</t>
+          <t>داروی انتخابی برای عفونت کلامیدیایی در دوران بارداری کدام است؟</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1616,7 +1621,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08028e56-dbec-42c4-95b4-f2dfe17d30a5</t>
+          <t>یک نئوپلاسم تخمدانی در یک دختر ۱۴ ساله به احتمال زیاد از نوع کدام مورد زیر است؟</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1660,7 +1665,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cac708d1-1cd4-484e-afbb-c6cc92237a22</t>
+          <t>خالکوبی اطراف محل ورود زخم در کدام مورد دیده می‌شود؟ neet 14</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1706,7 +1711,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6c4ad04d-a563-4b38-9262-46ea74a401bf</t>
+          <t>سونوگرافی روش تشخیصی انتخابی برای کدام مورد است؟</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1752,7 +1757,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4d82e8f5-b8e6-4bfd-b864-b9e4114c9257</t>
+          <t>در یک بیمار مرد 38 ساله با سابقه تصادف جاده‌ای، شکستگی‌های متعدد دنده‌ها و حساسیت در دیواره قفسه سینه چپ و هیپوکندریوم چپ و گاردینگ و ریجیدیتی. عکس‌برداری نشان‌دهنده مایع آزاد در شکم است. تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1806,7 +1811,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>d158d553-a0ae-4090-a7fd-93f1aacbcb7c</t>
+          <t>مزوتلیوما با کدام نوع آزبست مرتبط است؟</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1863,7 +1868,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>d403c03e-ac03-428d-b7f1-4dc766ad7cf1</t>
+          <t>کدام یک از موارد زیر در مورد cml صحیح است؟</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1913,7 +1918,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8f6e9918-afd0-4da8-9e65-d16d1074800f</t>
+          <t>در تشکیل هیدروکسی پرولین و هیدروکسی لیزین، عامل/عوامل ضروری مورد نیاز عبارتند از:</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1971,7 +1976,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>08fd1340-756c-46ef-b8a8-10c66ede7188</t>
+          <t>زوال عقل ناشی از کمبود کدام ویتامین است؟</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2020,7 +2025,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bca39878-dd96-4848-a990-7d1c6559d5ad</t>
+          <t>بلوغ قبل از 8 سالگی اتفاق نمی‌افتد زیرا:</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2079,7 +2084,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>40163b3b-cb53-4aad-9aab-9e83a0aebc58</t>
+          <t>عصب حرکتی اصلی حلق کدام است؟</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2135,7 +2140,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>641920f7-135b-4ee7-a9c0-eb4a696954c7</t>
+          <t>اپیتلیوم موجود در pct چیست؟</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2196,7 +2201,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8f6bb305-9f25-4fb9-a0ca-7163d3d068c3</t>
+          <t>آخرین عضوی که پس از مرگ دچار فساد می‌شود کدام است؟</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2244,7 +2249,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9bbff51a-c15a-4ec6-a956-310e0d78f50a</t>
+          <t>یک فرد ۶۰ ساله با شکایت از خونریزی روشن از مقعد به اورژانس مراجعه می‌کند. خونریزی چند ساعت قبل از مراجعه به طور ناگهانی شروع شده است. او هنگام بلند شدن سریع احساس سبکی سر دارد، اما هیچ درد شکمی، کرامپ، تب، تهوع یا استفراغ ندارد. سابقه‌ای از خونریزی یا درد شکمی در گذشته ندارد، اما سابقه بیماری عروق کرونر دارد و از آسپرین به عنوان "رقیق‌کننده خون" استفاده می‌کند. او بدون تب، کمی افت فشار خون و تاکی کاردی دارد، اما وضعیتش پایدار است. در معاینه، کاهش تورگور پوست و خشکی غشاهای مخاطی مشاهده می‌شود. هیچ حساسیت شکمی وجود ندارد. معاینه مقعدی وجود خون آشکار را نشان می‌دهد. کدام یک از موارد زیر محتمل‌ترین تشخیص است؟</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2306,7 +2311,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>64b1607b-adc4-404f-9640-b54bbfaf83c1</t>
+          <t>بهترین روش برای تصویربرداری از مجرای صفراوی پروگزیمال کدام است؟</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2352,7 +2357,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>03323e11-9aa7-4b0b-93a0-264ce95d7787</t>
+          <t>تمامی متغیرهای زیر می‌توانند بقای بیمار مبتلا به کلانژیت اسکلروزان اولیه را پیش‌بینی کنند؛ به جز</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2399,7 +2404,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>aa64cc79-3c76-40e3-b970-2b518681976d</t>
+          <t>درمان انتخابی برای یک بیمار با آمبولی ریوی حاد بزرگ همراه با هایپوکینزی بطن راست و کاهش برونده قلبی اما فشار خون طبیعی چیست؟</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2447,7 +2452,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>253ffc93-3d37-4f3a-9553-4aab9f122c2c</t>
+          <t>سواب nih برای تشخیص کدام مورد استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2514,7 +2519,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>f9e7ed6c-2781-43b7-9c25-c39e04c07341</t>
+          <t>مهم‌ترین نتیجه فوری کاهش کلسیم سرم چیست؟</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2568,7 +2573,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1936f4ae-3494-47f3-8f75-80df7b70311d</t>
+          <t>یک زن ۷۳ ساله در طول ۳ ماه گذشته ۱۰ کیلوگرم وزن از دست داده است. او به طور فزاینده‌ای دچار زردی شده و درد مبهم مداوم در ناحیه اپی‌گاستر، حالت تهوع و دوره‌هایی از نفخ و اسهال دارد. در معاینه فیزیکی، تب ندارد. حساسیت خفیف به لمس در قسمت فوقانی شکم وجود دارد، اما صداهای روده شنیده می‌شود. آزمایش خون مخفی در مدفوع منفی است. یافته‌های آزمایشگاهی شامل غلظت توتال بیلیروبین سرم ۱۱.۶ میلی‌گرم در دسی‌لیتر و سطح بیلیروبین مستقیم ۱۰.۵ میلی‌گرم در دسی‌لیتر است. کدام یک از شرایط زیر مربوط به پانکراس به احتمال زیاد در این بیمار وجود دارد؟</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2630,7 +2635,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>c1cc8783-8efb-40c4-89b6-61ff7ee46232</t>
+          <t>کدام مورد از ویژگی‌های بیماری هارتنپ نیست؟</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2677,7 +2682,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>76c6bd34-2fd9-4054-8ed8-86495832b39a</t>
+          <t>عصب فک بالا از گانگلیون سه قلو در حفره جمجمه میانی منشأ می‌گیرد. این عصب به سمت جلو در دیواره جانبی سینوس کاورنوز حرکت می‌کند و از کدام یک از سوراخ‌های زیر برای ورود به فوسا پتریگوپالاتین از جمجمه خارج می‌شود؟</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2729,7 +2734,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ee7976f0-48fc-414e-b3e0-828e17cd0990</t>
+          <t>گالاکتوره ممکن است با مصرف تمام داروهای زیر مرتبط باشد به جز -</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2778,7 +2783,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>a883f952-fb16-4893-b66a-a3106b15c35e</t>
+          <t>اثر بنیان‌گذار توزیع بیماری‌ها را بر اساس چه چیزی توصیف می‌کند؟</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2826,7 +2831,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ec28cd2b-ed69-46d7-b2c5-904573c9e631</t>
+          <t>عقب ماندگی ذهنی شدید به معنای ضریب هوشی در محدوده زیر است</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2884,7 +2889,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>276e1733-f4dc-4803-9d51-3eda246af684</t>
+          <t>کدام یک از داروهای زیر یک داروی آدرنرژیک ترجیحی برای توقف زایمان است؟</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2931,7 +2936,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7b3b1d2c-f0dc-4472-bdb9-f882bb1519d0</t>
+          <t>کاتاراکت رزت پس از کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2980,7 +2985,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2b24d194-8e5f-488d-b1f2-554e3c871ef7</t>
+          <t>یک بیمار غیرسیگاری دارای اگزودای آلوئولی است. او با علائم شبه آنفولانزا مراجعه کرده که پس از آن شواهد رادیولوژیکی از تحکیم در ریه مشاهده شده است. کدام یک از موارد زیر احتمالاً عامل این بیماری است؟</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3035,7 +3040,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5c9a8a2d-e821-4150-b26f-e7fc0c0ec413</t>
+          <t>ترتیب نزولی شیوع سرطان در مردان -</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3087,7 +3092,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>c29680d9-2482-400b-89df-18ac52250a7a</t>
+          <t>فیبرهای عضلانی نوع یک چه ویژگی دارند؟</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3139,7 +3144,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>968b5a85-1496-4f65-aabd-ed8a39e7ae10</t>
+          <t>یک پسر ۶ ماهه با هیپوسپادیاس متولد شده است. این وضعیت به دلیل نقص در رشد کدام یک از موارد زیر است:</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3184,7 +3189,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>8a0778b7-8bcc-4648-a577-63b59b85a6ad</t>
+          <t>کدام رنگ در میکروسکوپ فلورسنت استفاده نمی‌شود؟</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3236,7 +3241,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>55aba290-2009-407d-b7e7-66fe5f3cb8cc</t>
+          <t>پاپول بنفش رنگ با سطح صاف و نازک شدن ناخن. یافته میکروسکوپی کدام است؟</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3281,7 +3286,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>d974fdb4-034e-46e7-9204-c4e36871066e</t>
+          <t>کدام یک از مولکول‌های زیر در سنتز حلقه پورین نقش ندارد؟</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3330,7 +3335,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>c17a4f43-7ba0-435b-91c2-2dc078fe4c23</t>
+          <t>کدام یک محل اصلی انتشار پتانسیل عمل در یک عصب حسی پوستی است؟</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3393,7 +3398,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>eadd83ab-85d5-4d13-a8a3-d2a9fd1ba2c5</t>
+          <t>علامت کوسمول در همه موارد زیر دیده می‌شود به جز</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3440,7 +3445,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>90e2fe75-e30b-45e4-ac5f-ee3970355538</t>
+          <t>کدام یک از عبارات زیر در مورد انتروباکتریاسه صحیح است؟</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3496,7 +3501,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>758a5442-6200-46f2-a21b-532c9331f5e9</t>
+          <t>دبریدمان گسترده، روان‌کاری، تخریب میکروبی و حل کردن بافت توسط این محلول آبیاری انجام می‌شود</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3559,7 +3564,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2b168aaf-ab61-487b-a051-2e1580c59b4c</t>
+          <t>پالپیت حاد برگشت پذیر چگونه درمان می‌شود؟</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3609,7 +3614,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>73a3502a-52c4-4bee-abab-33a92edc1fe8</t>
+          <t>سوفل پیوسته در همه موارد زیر یافت می‌شود، به جز</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3668,7 +3673,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6e6cd351-66dc-49d7-9486-0d335f4c1730</t>
+          <t>مهم‌ترین جنبه مدیریت آسیب سوختگی در 24 ساعت اول چیست؟</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3716,7 +3721,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8d71d3dd-c30c-458b-abe0-8c198e4793a3</t>
+          <t>محرک ترشح سکرتین</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3765,7 +3770,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>186d1036-4740-434c-8d43-5a474452f595</t>
+          <t>حرف c در crp مخفف چیست؟</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3811,7 +3816,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>f2da670e-7b2c-455e-bc95-5d9fd723430a</t>
+          <t>از کشش گالو برای چه مواردی استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3859,7 +3864,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>81f683d3-6fdf-4cfa-9ae9-caa57509f664</t>
+          <t>آتاویسم به ارث بردن ویژگی‌های کدام یک است؟</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3906,7 +3911,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>42427729-16dd-48ae-a7f0-de3585356972</t>
+          <t>یکی از جدی‌ترین عوارض کهیر چیست؟</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3957,7 +3962,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>175a2dbb-2556-484b-bbc7-e0f04d220dcc</t>
+          <t>همه عبارت‌های زیر در مورد تراکئوستومی و حنجره در کودکان صحیح هستند به جز:</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4003,7 +4008,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1301039d-a296-4632-95b1-325ad8cc915d</t>
+          <t>در سرماي شديد، كدام يك از مكانیسم‌هاي توليد گرما نيست؟</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4055,7 +4060,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>43f37c22-9ae2-49ca-9d95-059dab0e94d6</t>
+          <t>شایع‌ترین محل پارگی آنوریسم بری کجاست؟</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4104,7 +4109,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>74615a7a-488d-4b6b-8598-09551766b584</t>
+          <t>تعداد تولدهای زنده به تعداد زنان 15-45 ساله در جمعیت نشان‌دهنده چیست؟ (تکرار)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4158,7 +4163,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0356583a-414d-403b-becc-62dd70a373be</t>
+          <t>پارامتری که در سونوگرافی اندازه‌گیری شده، 3.7 میلی‌متر است. این مقدار:</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4208,7 +4213,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>dcd8a784-47b3-4a05-ab4c-421698bbf999</t>
+          <t>تومور گلوموس که بخش وریکال کانال کاروتید را درگیر کرده است، از کدام نوع است؟</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4261,7 +4266,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3b5b8a11-e3f1-4857-81f2-1d21dab1511d</t>
+          <t>کدام یک از موارد زیر باعث همولیز داخل عروقی می‌شود؟</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4309,7 +4314,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2de776e2-b80b-436f-8d38-1e94de429857</t>
+          <t>درمان سرطان دهانه رحم مرحله iiib شامل موارد زیر است -</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4357,7 +4362,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5b47730c-ed7d-4a72-9feb-091d75f7d06f</t>
+          <t>انتهای دیستال استخوان بازو از چند مرکز رشد می‌یابد؟</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4410,7 +4415,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>e526dad3-71a5-43b0-9ad8-d99587c14faa</t>
+          <t>یک پسر جوان با ضایعات متعدد بولوز فلاکسی روی تنه و برخی ضایعات مخاط دهان مراجعه می‌کند. محتمل‌ترین یافته در مطالعه ایمونوفلورسانس نمونه بیوپسی چیست؟</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4462,7 +4467,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6646c7cf-60ff-4173-8ed6-daba48b29001</t>
+          <t>کدام گزینه در مورد کارسینوم زبان صحیح نیست؟</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4512,7 +4517,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6f3c1803-0b17-419d-9f29-feb894f22874</t>
+          <t>کم‌ترین بافت حساس به پرتودرمانی کدام است؟</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4559,7 +4564,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2c4a6f35-b26f-4011-8ffa-80b7ee922c7e</t>
+          <t>کدام یک از موارد زیر یک اختلال وابسته به کروموزوم x است؟</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4611,7 +4616,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>998f7851-f670-4363-abc6-62fce9df4d67</t>
+          <t>همه موارد زیر از ویژگی‌های پنومونی ویروسی هستند، به جز:</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4657,7 +4662,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>28ab274a-0763-4f92-b001-331978312e21</t>
+          <t>کدام یک از موارد زیر آنزیم محدودکننده سرعت در گلوکونئوژنز است؟</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4704,7 +4709,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>78a2aefc-562b-4e2d-b5c8-b270f8aa9e75</t>
+          <t>همه موارد زیر باعث افزایش esr می‌شوند به جز</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4753,7 +4758,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>d4421534-c18e-4cb3-af91-91534eb7aac1</t>
+          <t>کدام گزینه در مورد غدد لنفاوی گردنی عمقی نادرست است؟</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4803,7 +4808,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>b0f60cde-5ffa-4f74-b9e4-00cfc6a31bf8</t>
+          <t>مارکر برای لوسمی سلول مویی چیست؟</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4868,7 +4873,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>29302b53-95b7-45a6-b79b-f76b584298ea</t>
+          <t>عقب ماندگی ذهنی زمانی تعریف می‌شود که ضریب هوشی زیر چه عددی باشد؟</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4927,7 +4932,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>b0e39ab4-aa7a-4f88-846c-b18dc9474b80</t>
+          <t>همه موارد زیر مغلوب اتوزومی هستند به جز: (تکرار)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4976,7 +4981,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>c9668336-75b3-4ad2-bd61-8e026765917d</t>
+          <t>خون‌گیری (اگزسانگوئینیشن) یکی از مراحل اولیه قبل از اعمال تورنیکه در پیش‌از عمل است. همه موارد زیر از موارد منع خون‌گیری هستند به جز</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5030,7 +5035,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2022bc6b-d58b-4e46-8c25-e05f9a0f3a80</t>
+          <t>بهترین روش برای تعیین موقعیت سه بعدی دندان در سینوس فک بالا کدام است؟</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5080,7 +5085,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ae85ed60-e3c9-4f4d-8891-0d3e94aaf91c</t>
+          <t>بروکسیسم باعث موارد زیر می‌شود به جز</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5131,7 +5136,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>71e4cdc4-f64f-45be-8a84-fd2d1bcb9a0f</t>
+          <t>یک دختر 20 ساله با تب خفیف، ضعف، تعریق شبانه، کاهش وزن، درد مفاصل و خستگی به مدت 1 ماه مراجعه کرده است. در معاینه، نبض های محیطی در اندام های فوقانی ضعیف است و صدای بروئیت روی شریان کاروتید و ساب کلاوین شنیده می شود. در بررسی بیمار، اتساع آئورت پروگزیمال مشاهده شد. محتمل ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5192,7 +5197,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2c3adf10-2bb9-4f73-a3f7-963a05a2267c</t>
+          <t>کدام یک از شکستگی های زیر به دلیل جوش خوردن نامناسب (malunion) شناخته شده است؟</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5240,7 +5245,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>eb9e128c-1993-4e70-9280-1b14382a6b15</t>
+          <t>اندازه متوسط پنجره دهلیزی چقدر است؟</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5286,7 +5291,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ad2adf34-8785-43b2-b89e-a9ef509092c7</t>
+          <t>کدام یک از موارد زیر نشانه مطلق اسپلنکتومی نیست؟</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5337,7 +5342,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>48413a10-2d44-43fc-a662-e1277c9df98e</t>
+          <t>عبارت(های) صحیح درباره سوگامادکس:</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5396,7 +5401,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>607f6421-73c7-4a29-afc4-df4dc92c1718</t>
+          <t>ویژگی تشخیصی کارسینوم پاراتیروئید چیست؟</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5455,7 +5460,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>bc5be87d-6f29-4cf7-bfd1-7f21d1b6626f</t>
+          <t>محور طبیعی قلب به بهترین شکل بین کدام محدوده توصیف می‌شود؟</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5511,7 +5516,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>6e1bda68-9836-424a-8093-8f2b5316e142</t>
+          <t>کدام یک از ترکیبات زیر سمی‌ترین ترکیب جیوه است؟</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5555,7 +5560,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>f1aaaaab-7b80-4cc1-b56a-750c4957dfed</t>
+          <t>ویوریسم همچنین به عنوان چه چیزی شناخته می‌شود؟ neet 13</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5608,7 +5613,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2ee979cd-cf8d-4bf7-92dd-0649087e0c68</t>
+          <t>ویژگی‌های رادیولوژیک نارسایی بطن چپ همه موارد زیر هستند، به جز:</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5658,7 +5663,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>e0e380e3-dc45-4cfc-ab3e-d2d8de5068a6</t>
+          <t>کدام یک از موارد زیر معیار جزئی برای تشخیص تب روماتیسمی (rf) بر اساس معیارهای اصلاح شده جونز محسوب می‌شود؟</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5711,7 +5716,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ea6afb11-7321-4d98-b807-20adef48b873</t>
+          <t>کدام یک از موارد زیر در مورد مولکول آسیب کلیوی (kim-1) نادرست است؟</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5763,7 +5768,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>19b1eba1-26b7-4eca-9bd1-57f93280efde</t>
+          <t>کدام سلول از پایین کریپت به سمت انتهای ویلی مهاجرت نمی‌کند؟</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5834,7 +5839,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>94cb0542-4324-4175-9ed5-d81f80178f40</t>
+          <t>دوره کمون hbv چند روز است؟</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5886,7 +5891,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>67e5227d-f386-47ec-8e07-fe2a00998b41</t>
+          <t>شاخه‌های ورید کلیوی چپ همه موارد زیر هستند به جز</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5934,7 +5939,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ab2b7c0c-9ecd-4613-b649-0f4c3a874c3f</t>
+          <t>تمایل شدید به تهاجم عروقی در کدام یک از موارد زیر مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5982,7 +5987,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ad8c6225-9eb2-4800-8273-da030fd36e35</t>
+          <t>گسترده‌ترین سیستم عروقی در بین گزینه‌های زیر در کدام یافت می‌شود؟</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6031,7 +6036,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>b50cf098-f7ee-40b2-a18b-630e86c4d625</t>
+          <t>پسرفت نقاط عطف رشدی در همه موارد زیر دیده می‌شود به جز</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6079,7 +6084,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ede67b41-0ecd-4c59-991f-56b13f9f2dc0</t>
+          <t>"نسبت خطر" برای محاسبه کدام مورد استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6131,7 +6136,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>32536d1b-8b71-4fc2-8213-3e815bde2b4c</t>
+          <t>کدام یک از موارد زیر از ویژگی‌های بثورات سرخک است؟</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6182,7 +6187,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>193395e3-1740-49b1-90df-b11ddb4d1433</t>
+          <t>هیالین آرتریولواسکلروز در کدام مورد دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6231,7 +6236,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1720977f-35fe-4271-add6-5104ebe8225c</t>
+          <t>بلاد آگار نمونه ای از کدام مورد است؟</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6283,7 +6288,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>bff4b746-c039-4137-bc9f-4b9b576b1179</t>
+          <t>اگر بیمار دوز سمی لیدوکائین را به صورت داخل وریدی دریافت کند، احتمالاً چه علائمی را نشان می‌دهد؟</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6337,7 +6342,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>96d23d40-fd11-4d67-8513-1d776f927d89</t>
+          <t>اینترفرون آلفا (ifn-α) توسط کدام سلول ترشح می‌شود؟</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6394,7 +6399,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ae269d1c-1d27-4ff3-adc7-519ad7e4c5af</t>
+          <t>کدام استخوان معمولاً در اثر افتادن روی دست کشیده دچار شکستگی می‌شود؟</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6447,7 +6452,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>5d2b5fde-bfdb-4bc4-a172-90a7e6144460</t>
+          <t>مرد مسن با علائم زردی، مدفوع رنگ پریده، ادرار تیره و توده در ناحیه اپی گاستر. کدام یک از تشخیص‌های زیر نامحتمل است؟</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6510,7 +6515,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>6062c84a-fb44-492b-8806-a91b0040180a</t>
+          <t>شایع‌ترین عارضه‌ی مشاهده‌شده در فتق هیاتال که مرتبط با جراحی نیست، کدام است؟</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6559,7 +6564,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3f2ed5fb-f8eb-4092-a2b3-4a1a622c0b62</t>
+          <t>هذیان در حالت دلیریوم چیست؟</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6613,7 +6618,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>464664f0-d4b6-4f06-ae78-d0904167708b</t>
+          <t>یک مرد عضلانی با وزن ۷۰ کیلوگرم هماتوکریت ۴۵٪ دارد، حجم پلاسمای او چقدر خواهد بود؟</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6675,7 +6680,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>d93cc8a3-2bb0-43db-875a-342cb6d769d6</t>
+          <t>کدام یک با ذات‌الریه اکتسابی از جامعه مرتبط نیست؟</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6723,7 +6728,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>c79ceb7e-0bc4-465d-99d4-dec847224acb</t>
+          <t>یک زن ۲۲ ساله پس از فعالیت بدنی، راه رفتن در آفتاب، خوردن غذای تند و زمانی که عصبانی بود، دچار کهیرهای کوچک و خارش‌دار شد. محتمل‌ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6781,7 +6786,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>a05100c6-2508-4f16-ac7e-0b7d314623ba</t>
+          <t>انتقال آکسونی به دلیل کدام مورد است؟</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6831,7 +6836,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>da95ee6b-743c-4aa8-9ca1-b189bb2578b5</t>
+          <t>سندرم ورید اجوف فوقانی معمولاً توسط کدام مورد ایجاد می‌شود؟</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6880,7 +6885,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>6f2c4a02-4ad1-4f38-a5f6-405e8ec77f17</t>
+          <t>در مورد گلومرولوپاتی غشایی، تمام موارد زیر صحیح هستند به جز -</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6931,7 +6936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>05441a46-9a06-4b7e-8157-5527b8057125</t>
+          <t>طبقه‌بندی لنسفیلد برای چه چیزی استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6978,7 +6983,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>96265353-bf4c-4cd5-a540-3c0cbc5bb5e4</t>
+          <t>سلول لپرا چیست؟</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -7038,7 +7043,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>993b6518-0ee4-40f8-ab8e-fe99a426b9d3</t>
+          <t>تمامی موارد زیر در مورد تب کیو صحیح هستند به جز:</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7087,7 +7092,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>d92fff6f-1ce3-47fa-8a25-c56a31d38714</t>
+          <t>گره‌های اوسلر در کدام قسمت دیده می‌شوند؟</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -7138,7 +7143,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>cdfe6173-d997-4e39-972f-9e1f61451f86</t>
+          <t>شایع‌ترین محل پارگی آنوریسم آئورت شکمی کدام است؟</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7182,7 +7187,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ea33d718-bcfd-4b46-aa91-f5dc69728772</t>
+          <t>متاپلازی در تمام موارد زیر رخ می‌دهد به جز:</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7233,7 +7238,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>42a98d32-e339-43b4-b067-e181f097ab60</t>
+          <t>کدام یک از موارد زیر از یک دندان رویش نیافته ایجاد می‌شود؟</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7278,7 +7283,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ff9fc15f-eeda-4ddb-8c31-1730582252e2</t>
+          <t>الگوریتم استخوان به عنوان یک اصل در کدام یک از روش‌های زیر استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7328,7 +7333,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>82ba1780-e608-4092-b9b2-3a91ff625aae</t>
+          <t>یک مورد تروما غیرنافذ به اورژانس آورده شده است، در حالت شوک؛ به کریستالوئیدهای داخل وریدی پاسخ نمی‌دهد؛ مرحله بعدی در مدیریت او چیست؟</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7381,7 +7386,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>af0f3d51-5db1-4d5d-bb14-80e6e4ad2be6</t>
+          <t>فاسیکولاسیون‌ها توسط کدام عامل ایجاد می‌شوند؟</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7434,7 +7439,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>532f6e0d-08f8-4cd5-8d2e-2852db2636f4</t>
+          <t>ماسک حنجره‌ای (lma) برای چه مواردی استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7481,7 +7486,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>02829364-5cd0-4ed8-9753-82c7c8de6e11</t>
+          <t>کدام رفلکس باعث دفع مدفوع به دنبال مصرف غذا می‌شود؟</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7534,7 +7539,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>d6bb8938-27a0-4fed-930a-8f5ee71de81d</t>
+          <t>شاخص کیفیت خدمات سلامت مادر و کودک</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7588,7 +7593,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>743beda7-7147-4c6e-bac9-fac4787969f4</t>
+          <t>روش مایر یک روش درمانی برای چه موردی است؟</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7642,7 +7647,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1b4cdb90-180d-473e-a838-d8c255789deb</t>
+          <t>مثال از سیناپس الکتریکی:</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7696,7 +7701,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>dfe92c5a-1b60-47fa-a934-2f765f019810</t>
+          <t>پیلوکارپین در چشم باعث چه چیزی می‌شود؟</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7745,7 +7750,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1fb64742-295b-4742-a358-4ea02c3d2901</t>
+          <t>مکانیسمی که توسط آن ارگومترین خونریزی پس از زایمان را متوقف می‌کند این است که:</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7792,7 +7797,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>9b3918b0-8dcb-4429-8cb3-4e2adef4b1b1</t>
+          <t>همه موارد زیر خلط آور هستند به جز</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7844,7 +7849,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>a7853fad-e7d0-463f-80c5-fb7276b05734</t>
+          <t>بیماری لیگ ناشی از تجمع کدام ماده است؟</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7892,7 +7897,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1da50831-22f7-475f-b056-acca56763cd6</t>
+          <t>کندترین هدایت در کدام یک مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7948,7 +7953,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>be2ccb7e-de3f-4b7e-b8ba-ee87f1f9ea1c</t>
+          <t>بیمار برنامه‌ریزی شده برای لاپاراسکوپی کله‌سیستکتومی، دو سال پیش استنت دارویی گذاشته است. بیمار از آن زمان تاکنون هیچ علامتی نداشته است. کدام مجموعه از بررسی‌های زیر باید در این بیمار انجام شود؟</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -8003,7 +8008,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ac04ddc0-ffb6-40ec-9ab8-d661d5926ac8</t>
+          <t>همه موارد زیر استر هستند به جز:</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -8051,7 +8056,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>97ded530-2b50-496b-ad98-9ff3ea43557e</t>
+          <t>ساختاری که یک سوم خلفی کانال مهره‌ای را تشکیل می‌دهد چیست؟ (jipmer may 2019)</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -8105,7 +8110,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>a1388e95-35b7-4c0f-b70d-76637b6517e4</t>
+          <t>پوسته‌های نقره‌ای معمول در پسوریازیس در کدام ناحیه وجود ندارد؟</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -8152,7 +8157,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>77f0eb34-01ea-4582-b853-653e500b8812</t>
+          <t>پیشگیری اولیه در بیماری‌های قلبی کرونری-</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -8211,7 +8216,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>755c474c-f2d1-4064-9465-1093c6b6311c</t>
+          <t>نشانه قطعی انسداد روده چیست؟</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -8261,7 +8266,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>7afa64b5-16e8-40b7-9dff-7d9098570461</t>
+          <t>تورم‌های تناسلی در مردان به چه چیزی تبدیل می‌شوند؟</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8313,7 +8318,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>678e6f66-4d6a-4934-9a92-73fba01fb004</t>
+          <t>رنگ نهایی عنبیه به کدام بخش بستگی دارد؟</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8370,7 +8375,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>a60e8ba8-61e6-4591-b97d-7297216fddf5</t>
+          <t>یک دانشجوی ۱۸ ساله کالج با تب، سردرد، سفتی گردن و راش پتشیال روی مچ پاها مراجعه می‌کند. پونکسیون کمری نشان‌دهنده فراوانی گلبول‌های سفید با دیپلوکوک‌های گرم منفی خارج سلولی و داخل سلولی است. مناسب‌ترین اقدام احتیاطی برای ایزوله کردن را انتخاب کنید.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8420,7 +8425,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>35123146-ad0d-4d63-9604-cd6ccb85857b</t>
+          <t>اسید پارا آمینو بنزوئیک شیر مادر از عفونت کدام یک جلوگیری می‌کند؟</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8464,7 +8469,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>54dbe065-6bb4-4bd2-8244-e2ae0c6d191c</t>
+          <t>گاسترین به عنوان یک نشانگر بیوشیمیایی برای کدام یک از تومورهای زیر است؟</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8524,7 +8529,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>35400ada-40b0-4469-bd85-308421fd7c9c</t>
+          <t>نوع انسداد در سندرم بود-کیاری چیست؟</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8575,7 +8580,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>3f09d790-900d-491f-bebb-f403e3ac600a</t>
+          <t>همراه با جمع شدگی پلیمریزاسیون، یکی از معایب عمده پلی متیل متاکریلات به عنوان رزین پایه پروتز، ضعف در</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8623,7 +8628,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>51e060f7-623e-4d07-b44f-0522a9ffec6a</t>
+          <t>کدام یک از موارد زیر در مورد آنتی‌بادی ige صحیح نیست؟</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8675,7 +8680,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>a6c73a3e-97d1-4e2d-a7f0-654966afc99d</t>
+          <t>فراوان‌ترین اسید آمینه در کلاژن کدام است؟</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8724,7 +8729,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2c80cbd3-c60b-450b-ac34-e6518f81f7ad</t>
+          <t>تاول درون اپیدرمی در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8770,7 +8775,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>f99ce7d6-2754-4ff1-a870-b8e25b4c016b</t>
+          <t>ترشح هورمون پاراتیروئید توسط چه چیزی تحریک می‌شود؟</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8830,7 +8835,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>08028e56-dbec-42c4-95b4-f2dfe17d30a5</t>
+          <t>فشار جزئی اکسیژن در هوای بازدمی چقدر است؟</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8889,7 +8894,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>566e8ba3-6516-4a2a-b6fd-eec07a966375</t>
+          <t>تکنیک فشردن برای درمان کدام مورد استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8939,7 +8944,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1c81c6b1-87ca-4b7d-b0e3-39ab2c4d3a42</t>
+          <t>کدام گزینه در مورد لنفوم اولیه سیستم عصبی مرکزی (cns) صحیح است؟  
+الف) رنگ‌آمیزی رتیکولین انجام می‌شود  
+ب) عمدتاً از نوع سلول b است  
+ج) با ویروس ebv مرتبط است  
+د) بیماری کم‌تهاجمی با پیش‌آگهی خوب است  
+ه) شیمی‌درمانی بسیار مؤثر است</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -9000,7 +9010,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>cac708d1-1cd4-484e-afbb-c6cc92237a22</t>
+          <t>فاسیکولاسیون در کدام یک از موارد زیر مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -9048,7 +9058,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>f3ea4fe1-2b51-4e62-83fe-cdaeef568395</t>
+          <t>داروی انتخابی برای لاروا میگران پوستی کدام است؟</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -9104,7 +9114,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>6c4ad04d-a563-4b38-9262-46ea74a401bf</t>
+          <t>در کدام یک از موارد زیر، کلاژن موازی و با فاصله یکنواخت وجود دارد؟</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -9161,7 +9171,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>4d82e8f5-b8e6-4bfd-b864-b9e4114c9257</t>
+          <t>شاخص استرنال برای چه چیزی استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -9210,7 +9220,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>8dc7214c-b4af-420d-ae6b-34f52af230e5</t>
+          <t>بررسی اولیه در بستر برای پاپیلودم چیست؟</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -9263,7 +9273,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>9c3f887a-df4c-4395-9984-c82a4fdf69dd</t>
+          <t>ایمپالس‌هایی که نورون پس‌سیناپسی را خودش مهار می‌کنند</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -9327,7 +9337,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>95f8f948-81b2-4434-942a-0f9d07ea0f8f</t>
+          <t>در رادیوگرافی کنتراست، کدام گزینه نادرست است؟</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -9377,7 +9387,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>e3d49ee8-77a7-4aa4-a33a-cf35e377ce2a</t>
+          <t>نشانگر آلودگی مدفوعی چیست؟</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -9430,7 +9440,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>d158d553-a0ae-4090-a7fd-93f1aacbcb7c</t>
+          <t>ظاهر چشم مار در نمای اکلوزال کدام دندان دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9488,7 +9498,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>08fd1340-756c-46ef-b8a8-10c66ede7188</t>
+          <t>اسیدهای آمینه شاخه دار</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9536,7 +9546,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>a05ce1a4-3805-4c66-a3fe-3cd09dc91e4e</t>
+          <t>در مورد تومورهای سینوس آندودرمی کدام گزینه صحیح است؟</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9595,7 +9605,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>bca39878-dd96-4848-a990-7d1c6559d5ad</t>
+          <t>در یک سری دووجهی، اگر میانگین 2 و میانه 3 باشد، مد چیست؟</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9646,7 +9656,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>40163b3b-cb53-4aad-9aab-9e83a0aebc58</t>
+          <t>در هنگام انجام بیحسی نخاعی، دارو در کجا تزریق میشود؟</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9697,7 +9707,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>52afb2fa-3f59-4fb2-9116-39700817ce87</t>
+          <t>جدیدترین نوع طلای مستقیم پرکننده که سخت‌ترین سطح را پس از فشرده‌سازی تولید می‌کند کدام است؟</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9743,7 +9753,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>641920f7-135b-4ee7-a9c0-eb4a696954c7</t>
+          <t>کدام مورد از معیارهای اصلی تشخیص نوروسیستیسرکوزیس نیست؟</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9806,7 +9816,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>8f6bb305-9f25-4fb9-a0ca-7163d3d068c3</t>
+          <t>یک دختر ۵ ساله در بخش کودکان بستری شده است. والدین گزارش می‌دهند که کودک در طول ۱.۵ سال گذشته، دوره‌های مکرر و متناوبی از تب و ناراحتی تنفسی شامل سرفه، خس‌خس سینه و تنگی نفس به مدت ۳-۴ روز داشته است. در هر دوره، هموپتیزی (سرفه خونی) نیز وجود داشته است. اکنون او با تشخیص پنومونی لوب تحتانی راست تحت درمان بهبود یافته است. در معاینه فیزیکی، بیمار رنگ‌پریده، زردی دارد و چماقی شدن انگشتان مشاهده می‌شود. کدام یک از موارد زیر مناسب‌ترین اقدام تشخیصی بعدی است؟</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9866,7 +9876,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>9bbff51a-c15a-4ec6-a956-310e0d78f50a</t>
+          <t>افزایش یک میلی‌متری شعاع انحنای قرنیه منجر به دوربینی چند دیوپتری می‌شود؟</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9945,7 +9955,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>f2197212-f723-4a29-af18-a9614c0ac7f8</t>
+          <t>درمان انتخابی برای گلوکوم با زاویه بسته چیست؟</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9994,7 +10004,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>aa64cc79-3c76-40e3-b970-2b518681976d</t>
+          <t>بیماری‌زایی استافیلوکوک با کدام مورد مشخص می‌شود؟</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -10041,7 +10051,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>253ffc93-3d37-4f3a-9553-4aab9f122c2c</t>
+          <t>در مورد پیچخوردگی بیضه، همه موارد زیر صحیح هستند به جز</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -10087,7 +10097,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>f9e7ed6c-2781-43b7-9c25-c39e04c07341</t>
+          <t>یک مرد ۶۰ ساله دیابتی و مبتلا به فشار خون بالا با درجه دوم پروستاتیسم که برای پروستاتکتومی بستری شده است، دچار انفارکتوس میوکارد شده است. درمان فعلی او چیست؟</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -10149,7 +10159,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1936f4ae-3494-47f3-8f75-80df7b70311d</t>
+          <t>دوره تخمک گذاری مربوط به کدام یک از موارد زیر است؟</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -10202,7 +10212,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>c1cc8783-8efb-40c4-89b6-61ff7ee46232</t>
+          <t>کودکی با شکستگی پاتولوژیک، سنگ کلیه و علائم روانپزشکی مراجعه می‌کند. محتمل‌ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -10256,7 +10266,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>76c6bd34-2fd9-4054-8ed8-86495832b39a</t>
+          <t>کمترین اثر ضد درد</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -10302,7 +10312,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ee7976f0-48fc-414e-b3e0-828e17cd0990</t>
+          <t>نوع مفصل بین ساکروم و دنبالچه چیست؟</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -10350,7 +10360,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>a883f952-fb16-4893-b66a-a3106b15c35e</t>
+          <t>اولین نشانه در پاپیل ادم چیست؟</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -10406,7 +10416,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ec28cd2b-ed69-46d7-b2c5-904573c9e631</t>
+          <t>ویژگی‌های زخم‌های تیفوئیدی شامل همه موارد زیر است به جز:</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -10467,7 +10477,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>276e1733-f4dc-4803-9d51-3eda246af684</t>
+          <t>باربیتورات طولانی اثر کدام است؟</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -10514,7 +10524,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>7b3b1d2c-f0dc-4472-bdb9-f882bb1519d0</t>
+          <t>کدام یک از مقیاس‌های زیر مربوط به وضعیت اجتماعی-اقتصادی شهری نیست؟</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -10564,7 +10574,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2b24d194-8e5f-488d-b1f2-554e3c871ef7</t>
+          <t>سندرم ترنر با موارد زیر مشخص می‌شود به جز:</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -10612,7 +10622,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>c29680d9-2482-400b-89df-18ac52250a7a</t>
+          <t>تجویز مداوم gnrh-</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -10668,7 +10678,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>e82db93e-e3d1-42f5-8bb5-e22ef68d6894</t>
+          <t>در مورد مجرای صفراوی مشترک، همه گزینه‌ها صحیح هستند به جز</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -10724,7 +10734,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>968b5a85-1496-4f65-aabd-ed8a39e7ae10</t>
+          <t>یک بیمار با تومور دسموئید دیواره شکم باید برای چه مورد دیگری نیز غربالگری شود؟ (d. repeat 2013)</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -10768,7 +10778,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>55aba290-2009-407d-b7e7-66fe5f3cb8cc</t>
+          <t>یک فرد سالم هنگام تلاش برای دم در برابر یک راه هوایی بسته چه اتفاقی می‌افتد؟</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -10815,7 +10825,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>d974fdb4-034e-46e7-9204-c4e36871066e</t>
+          <t>خونریزی پس از زایمان آتونیک در کدام مورد دیده نمی‌شود؟</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -10865,7 +10875,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>c17a4f43-7ba0-435b-91c2-2dc078fe4c23</t>
+          <t>همه موارد زیر گشادکننده عروق هستند به جز</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -10913,7 +10923,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>eadd83ab-85d5-4d13-a8a3-d2a9fd1ba2c5</t>
+          <t>اگر کیسه جمع شدگی خلفی فوقانی پیشرفت کند، منجر به چه چیزی می‌شود؟</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -10965,7 +10975,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>90e2fe75-e30b-45e4-ac5f-ee3970355538</t>
+          <t>ویژگی پره اکلامپسی شامل همه موارد زیر به جز کدام است؟ (pgi may 2011)</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11027,7 +11037,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>758a5442-6200-46f2-a21b-532c9331f5e9</t>
+          <t>سلول های غول پیکر چند هسته ای در اسمیر تزانک در کدام بیماری دیده می شوند؟</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -11080,7 +11090,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2b168aaf-ab61-487b-a051-2e1580c59b4c</t>
+          <t>رنگدانه ناشی از سایش و پارگی در بدن به چه چیزی اشاره دارد؟</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -11127,7 +11137,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>73a3502a-52c4-4bee-abab-33a92edc1fe8</t>
+          <t>کدام یک از ایمونو-نوترنتی‌های بالا در شرایط استرس بیشتر مورد نیاز هستند؟</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -11181,7 +11191,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>6e6cd351-66dc-49d7-9486-0d335f4c1730</t>
+          <t>آنتی توپوایزومراز i (scl-70) و آنتی rna پلیمراز iii به طور کلاسیک در کدام مورد دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -11233,7 +11243,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>8d71d3dd-c30c-458b-abe0-8c198e4793a3</t>
+          <t>کدام دارو در درمان مانیا استفاده نمی‌شود؟</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -11280,7 +11290,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>186d1036-4740-434c-8d43-5a474452f595</t>
+          <t>کدام یک از موارد زیر یک کدون بی‌معنی است؟</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -11331,7 +11341,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>d239f1b7-2ac8-465e-93e8-ba6e45d67657</t>
+          <t>درمان اندودنتیک برای دندانی که تک ریشه ای است و دارای کدام یک از موارد زیر می باشد، منع مصرف دارد؟</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -11381,7 +11391,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>4b3f3e73-c9fe-4649-bc3c-7efac39cd361</t>
+          <t>اثر اصلی پروستاسایکلین در التهاب چیست؟</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -11430,7 +11440,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>953b1730-42e6-4dac-bca7-3d595aeb896e</t>
+          <t>دوز کدام یک از شل‌کننده‌های عضلانی زیر باید بر اساس وزن کل بدن یک فرد چاق محاسبه شود، نه وزن ایده‌آل آن؟</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -11479,7 +11489,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>42427729-16dd-48ae-a7f0-de3585356972</t>
+          <t>ترکیبی که هر دو مسیر گلیکولیز و گلوکونئوژنز را تنظیم می‌کند کدام است؟</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -11535,7 +11545,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>175a2dbb-2556-484b-bbc7-e0f04d220dcc</t>
+          <t>در یک بیمار با برون‌ده قلبی 5 لیتر در دقیقه و سطح بدن 1.7 متر مربع، شاخص قلبی چقدر خواهد بود؟</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -11594,7 +11604,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1301039d-a296-4632-95b1-325ad8cc915d</t>
+          <t>شایع ترین بیماری قلبی مرتبط با بارداری کدام است؟</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -11639,7 +11649,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>43f37c22-9ae2-49ca-9d95-059dab0e94d6</t>
+          <t>کاربرد پودوفیلین درمان انتخابی در کدام مورد است؟</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -11688,7 +11698,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>74615a7a-488d-4b6b-8598-09551766b584</t>
+          <t>مشکل اصلی در ارائه دستورالعمل های بهداشت دهان به نوجوانان چیست؟</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -11735,7 +11745,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>86050610-4217-411e-9383-d08b18990f5c</t>
+          <t>سرعت اسپرم در دستگاه تناسلی زنانه چقدر است؟</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -11797,7 +11807,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>0356583a-414d-403b-becc-62dd70a373be</t>
+          <t>آنتی‌بیوتیکی که می‌تواند به عنوان عامل ضد پلاک استفاده شود کدام است؟</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -11849,7 +11859,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>dcd8a784-47b3-4a05-ab4c-421698bbf999</t>
+          <t>شایع‌ترین علت خونریزی داخل جمجمه‌ای چیست؟</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -11907,7 +11917,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>3b5b8a11-e3f1-4857-81f2-1d21dab1511d</t>
+          <t>هیپوگلیسمی در نوزادان و کودکان در صورتی رخ می‌دهد که سطح گلوکز خون به چه میزان باشد؟</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -11948,7 +11958,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>c3d1dd95-8d4f-4a89-a47a-126331018ebc</t>
+          <t>شبکه لنفاوی زیرکپسولی تیروئید به کدام سطح تخلیه می‌شود؟</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -12006,7 +12016,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>6f3c1803-0b17-419d-9f29-feb894f22874</t>
+          <t>دوره‌ی جداسازی بیمار مبتلا به هپاتیت a پس از شروع زردی چقدر است؟</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -12056,7 +12066,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1966b21f-d30e-4fc3-aa05-493fecfd5e9f</t>
+          <t>در دوره فوری پس از عمل، علت شایع نارسایی تنفسی می‌تواند به دلیل موارد زیر باشد، به جز:</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -12110,7 +12120,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>5ec68b85-3e54-483e-bf2b-d90c69e8c4a9</t>
+          <t>داروی انتخابی برای پرکاری تیروئید در سه‌ماهه اول بارداری کدام است؟</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -12180,7 +12190,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>11de0f84-c3dd-4248-b022-df2ae5e17ab1</t>
+          <t>یک زن در هفته ۱۴ بارداری، دو روز پیش در معرض آبله مرغان قرار گرفته است. او سابقه قبلی آبله مرغان ندارد. قدم بعدی چیست؟</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -12232,7 +12242,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>998f7851-f670-4363-abc6-62fce9df4d67</t>
+          <t>حالب از چه چیزی تشکیل می‌شود؟</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -12293,7 +12303,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>28ab274a-0763-4f92-b001-331978312e21</t>
+          <t>کدام یک از موارد زیر با سه گانه ویرکوف مرتبط است؟</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -12346,7 +12356,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>78a2aefc-562b-4e2d-b5c8-b270f8aa9e75</t>
+          <t>ساختارهایی شبیه به نمونه ای که:</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -12403,7 +12413,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>d4421534-c18e-4cb3-af91-91534eb7aac1</t>
+          <t>چندین ترکیب ضد ویروسی در دهه گذشته توسعه یافته اند. یکی از این ترکیبات ریباویرین است، یک نوکلئوزید مصنوعی که از نظر ساختاری به گوانوزین مرتبط است. درمان با ریباویرین با موفقیت علیه کدام یک از موارد زیر استفاده شده است؟</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -12457,7 +12467,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>b0f60cde-5ffa-4f74-b9e4-00cfc6a31bf8</t>
+          <t>در مورد لوپوس ولگاریس کدام گزینه صحیح است؟  
+الف) ندول ژله سیب در ریشه بینی  
+ب) سل پوست و مخاط  
+ج) معروف به اسکروفولودرما نیز هست  
+د) درمان ضد سل مفید است</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -12509,7 +12523,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>29302b53-95b7-45a6-b79b-f76b584298ea</t>
+          <t>شایع‌ترین علت احتباس ادرار حاد در کودک ۲ ساله کدام است؟</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -12559,7 +12573,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>b0e39ab4-aa7a-4f88-846c-b18dc9474b80</t>
+          <t>ماده حاجب مورد استفاده در سی‌تی‌اسکن:</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -12612,7 +12626,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>c9668336-75b3-4ad2-bd61-8e026765917d</t>
+          <t>سی‌تی‌اسکن نشان‌دهنده پایه ریه با ضایعات حفره‌دار</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -12676,7 +12690,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ae85ed60-e3c9-4f4d-8891-0d3e94aaf91c</t>
+          <t>برای پیوند، قرنیه را می‌توان تا چه مدت پس از مرگ از بدن خارج کرد؟</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -12718,7 +12732,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>71e4cdc4-f64f-45be-8a84-fd2d1bcb9a0f</t>
+          <t>کم‌یاب‌ترین یافته در لنف‌ادم</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -12761,7 +12775,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>de6626c6-58dd-4672-abed-0b4384c9e8b7</t>
+          <t>دستورالعمل‌های osha برای آسیب‌های سوزنی و سایر اجسام تیز همه موارد زیر را الزامی می‌کند، به جز</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -12811,7 +12825,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>eb9e128c-1993-4e70-9280-1b14382a6b15</t>
+          <t>یک زن ۶۵ ساله ندول‌های ضخیم و اریتماتوز روی گوش‌ها و بینی خود همراه با از دست‌دادن قابل‌توجه حس ایجاد شده است. این ندول‌ها طی سال‌های متمادی به‌آهستگی رشد کرده‌اند. بیوپسی ضایعات، گرانولوم‌های درمال با سلول‌های غول‌آسا اما بدون باکتری‌های اسیدفاست نشان می‌دهد. کشت روی محیط خون‌آگار و لوونشتاین-جنسن رشد ندارد. این یافته‌ها بیشتر با کدام یک از تشخیص‌های زیر سازگار است؟</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -12862,7 +12876,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>48413a10-2d44-43fc-a662-e1277c9df98e</t>
+          <t>نوزاد ترمی که به روش زایمان طبیعی متولد شده است، دچار دیسترس تنفسی، خرخر و شکم قایقی شکل است. محتمل‌ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -12913,7 +12927,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>0e98c3a6-c4dc-430f-8a5c-a9d0c7d8da76</t>
+          <t>کدام یک از داروهای زیر از جفت عبور نمی‌کند؟</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -12964,7 +12978,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>6e1bda68-9836-424a-8093-8f2b5316e142</t>
+          <t>یک پسر ۷ ساله در حالی که بدون کمربند ایمنی در صندلی عقب یک مینی‌ون نشسته بود، در یک تصادف موتورسیکلت involved شد. علائم حیاتی او در اورژانس پایدار است اما از درد در ربع فوقانی چپ شکم شکایت دارد. اسکن fast نشان‌دهنده مایع کم در اطراف ناودان کولیک چپ است. سی‌تی اسکن شکم و لگن با کنتراست وریدی و خوراکی انجام شده و رادیولوژیست "blush" (نشت شریانی) در پارانشیم طحال را گزارش می‌دهد. طحال دچار پارگی عمیق پارانشیمی شده و به عنوان آسیب درجه iii طبقه‌بندی می‌شود. کودک از نظر همودینامیکی پایدار باقی می‌ماند. چه اقدام بعدی توصیه می‌شود؟</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -13036,7 +13050,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>f1aaaaab-7b80-4cc1-b56a-750c4957dfed</t>
+          <t>یک پسر ۴ ساله هر بار که مادرش با تلفن صحبت می‌کند، صحبت او را قطع می‌کند. پزشک متخصص اطفال خانواده توصیه می‌کند که هر بار که کودک صحبت مادر را قطع می‌کند، مادر به او توجهی نکند. پزشک متخصص چه چیزی را توصیه کرده است؟</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -13087,7 +13101,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2ee979cd-cf8d-4bf7-92dd-0649087e0c68</t>
+          <t>شدیدترین عارضه سندرم هیپرائوزینوفیلیک ایدیوپاتیک کدام است؟</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -13141,7 +13155,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>c2a173bb-43e8-4947-8b34-44a0944206ef</t>
+          <t>نوزادان به چه میزان از داروی بیهوشی نیاز دارند؟</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -13196,7 +13210,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>56732cdb-f400-4b52-b6e4-b5773c8506c9</t>
+          <t>از دست دادن زودرس اپیتلیوم مینای کاهش یافته (ree) باعث می‌شود بافت همبند به طور مستقیم با مینا تماس پیدا کند و در نتیجه یک لایه نازک سیمان روی مینای گردنی رسوب کند. این سیمان از چه نوعی است؟</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -13250,7 +13264,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>e0e380e3-dc45-4cfc-ab3e-d2d8de5068a6</t>
+          <t>کدام یک از داروهای ضد آریتمی زیر مدت زمان پتانسیل عمل را در فیبرهای پورکینژ کاهش می‌دهد؟</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -13300,7 +13314,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>dbfa45ce-f258-414e-8bae-c2c700a0c3c1</t>
+          <t>حساس‌ترین شاخص کاهش حجم داخل عروقی در یک نوزاد کدام است؟</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -13344,7 +13358,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>5c6fe1c0-5efb-4932-b249-5d2e6bdc9903</t>
+          <t>ساختار مشخص شده با فلش به احتمال زیاد چیست؟</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -13390,7 +13404,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ad8c6225-9eb2-4800-8273-da030fd36e35</t>
+          <t>برای بیمار مبتلا به زخم معده و عفونت هلیکوباکتر پیلوری که از داروهای ضدالتهاب غیراستروئیدی (nsaids) استفاده می‌کند، درمان انتخابی کدام است؟</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -13463,7 +13477,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>b50cf098-f7ee-40b2-a18b-630e86c4d625</t>
+          <t>شریان گاسترو اپیپلوئیک چپ شاخه ای از کدام شریان است؟</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -13510,7 +13524,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>193395e3-1740-49b1-90df-b11ddb4d1433</t>
+          <t>تمام موارد زیر در مورد تغییرات عضلانی پس از مرگ صحیح هستند، به جز:</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -13558,7 +13572,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>1720977f-35fe-4271-add6-5104ebe8225c</t>
+          <t>سلول‌های موريفورم در کدام بیماری دیده می‌شوند؟</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -13612,7 +13626,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>5d2b5fde-bfdb-4bc4-a172-90a7e6144460</t>
+          <t>کدام یک از موارد زیر شایع‌ترین علت انعقاد مصرفی با اهمیت بالینی است؟</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -13663,7 +13677,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>79c68b64-6116-42b4-9fb6-befe2cfa40dd</t>
+          <t>نورالژی سه قلو (تری ژمینال)</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -13726,7 +13740,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>464664f0-d4b6-4f06-ae78-d0904167708b</t>
+          <t>دوره پنجره برای عفونت hiv چیست؟</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -13785,7 +13799,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>d93cc8a3-2bb0-43db-875a-342cb6d769d6</t>
+          <t>واکنش‌های آلرژیک به مواد کنتراست رادیولوژیک عبارتند از -</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -13829,7 +13843,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>a05100c6-2508-4f16-ac7e-0b7d314623ba</t>
+          <t>دوز انسولین در بیماران دیابتی پایدار در کدام مورد کاهش می یابد؟</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -13879,7 +13893,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>da95ee6b-743c-4aa8-9ca1-b189bb2578b5</t>
+          <t>کدام یک از داروهای ضد سل زیر برای کبد سمی نیست؟</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -13932,7 +13946,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>cdfb4b9f-3bd4-4b89-a9ce-f36cc7bfb356</t>
+          <t>پیوند پوست لایه‌ای در کودکان باید از کدام ناحیه برداشت شود؟</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -13992,7 +14006,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ba233049-e69a-470a-bdce-fcfbfb82a765</t>
+          <t>یک بیمار دیابتی 70 ساله با درد شدید در گوش، ظاهر شدن گرانولاسیون در مجرای گوش، عفونت پایه جمجمه همراه با فلج صورت باید با چه چیزی درمان شود؟</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -14059,7 +14073,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>6f2c4a02-4ad1-4f38-a5f6-405e8ec77f17</t>
+          <t>یک کودک 2 ساله با ضایعات لیتیک پراکنده در جمجمه مراجعه می‌کند. بیوپسی سلول‌های غول‌آسای لانگرهانس را نشان می‌دهد. شایع‌ترین مارکر مرتبط با این بیماری کدام است؟</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -14113,7 +14127,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ec109e50-48ad-4255-aa36-5cc9cbbfc1f2</t>
+          <t>شایع‌ترین علت تشنج در کودکان مبتلا به اسهال چیست؟</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -14161,7 +14175,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>780cc12b-a444-4fa4-a137-5c14d06dcbb9</t>
+          <t>قطر و طول قطعه‌ای که با فلش مشخص شده است چیست؟</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -14213,7 +14227,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>d92fff6f-1ce3-47fa-8a25-c56a31d38714</t>
+          <t>پیوندهای پوستی که در دمای 4 درجه سانتیگراد نگهداری می‌شوند تا چه مدت می‌توانند زنده بمانند؟</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -14267,7 +14281,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>cdfe6173-d997-4e39-972f-9e1f61451f86</t>
+          <t>در مورد آپاندیسیت در بارداری، کدام گزینه نادرست است؟</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -14317,7 +14331,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ea33d718-bcfd-4b46-aa91-f5dc69728772</t>
+          <t>کدام یک از داروهای زیر با گلوکوم زاویه باز مرتبط نیست؟</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -14367,7 +14381,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>42a98d32-e339-43b4-b067-e181f097ab60</t>
+          <t>پاسخ به کم خونی فقر آهن با کدام مورد نشان داده می‌شود؟</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -14414,7 +14428,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ff9fc15f-eeda-4ddb-8c31-1730582252e2</t>
+          <t>هدف جهانی سازمان بهداشت جهانی برای پیشگیری و کنترل بیماری‌های غیرواگیر تا سال ۲۰۲۵، کاهش فشار خون بالا به میزان چه درصدی است؟</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -14460,7 +14474,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>82ba1780-e608-4092-b9b2-3a91ff625aae</t>
+          <t>تمام موارد زیر در مورد مولتیپل میلوما صحیح هستند به جز:</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -14512,7 +14526,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>af0f3d51-5db1-4d5d-bb14-80e6e4ad2be6</t>
+          <t>رتینوپاتی به احتمال زیاد در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -14565,7 +14579,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>532f6e0d-08f8-4cd5-8d2e-2852db2636f4</t>
+          <t>دیواره قدامی زیر بغل توسط کدام عضله تشکیل می‌شود؟</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -14612,7 +14626,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>229e499d-bc82-46ce-9313-c493ba20324b</t>
+          <t>رفلکسی که هرگز باز نمی‌گردد کدام است؟</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -14658,7 +14672,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>743beda7-7147-4c6e-bac9-fac4787969f4</t>
+          <t>غلاف زیربغلی از کدام ساختار مشتق شده است؟</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -14717,7 +14731,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>1b4cdb90-180d-473e-a838-d8c255789deb</t>
+          <t>همه موارد زیر در مورد سندرم براون-سکارد صحیح هستند به جز</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -14768,7 +14782,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>dfe92c5a-1b60-47fa-a934-2f765f019810</t>
+          <t>کاپنوگرافی برای چه مواردی مفید است؟</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -14820,7 +14834,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>e91cdc09-7f98-4fec-89b4-1a5180db631c</t>
+          <t>حساس‌ترین روش تشخیصی برای عفونت‌های استخوانی در مراحل اولیه کدام است؟</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -14869,7 +14883,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>1da50831-22f7-475f-b056-acca56763cd6</t>
+          <t>نمای رادیوگرافی مورد استفاده برای شکاف تحتانی کاسه چشم چیست؟</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -14915,7 +14929,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>be2ccb7e-de3f-4b7e-b8ba-ee87f1f9ea1c</t>
+          <t>ویژگی های عضله راست تحتانی چیست؟</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -14963,7 +14977,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>73b220e2-26ff-428c-bbd1-ed8d42ca613e</t>
+          <t>"طاعون سفید" چیست؟</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -15013,7 +15027,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>7e4a6adc-6373-4212-868d-ff303c525fc3</t>
+          <t>چرخه بینی به انسداد متناوب و چرخه‌ای بینی اشاره دارد که هر چند وقت یک‌بار رخ می‌دهد:</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -15061,7 +15075,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>97ded530-2b50-496b-ad98-9ff3ea43557e</t>
+          <t>ویروس های آنفلوانزای پرندگان به کدام گیرنده های اسید سیالیک متصل می شوند؟</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -15116,7 +15130,11 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>a1388e95-35b7-4c0f-b70d-76637b6517e4</t>
+          <t>تومور سلول سنگفرشی مثانه به دلیل کدام یک از موارد زیر است؟  
+الف) سنگ  
+ب) شیستوزومیازیس  
+ج) سیستیت مزمن  
+د) دیابت شیرین</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -15166,7 +15184,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>755c474c-f2d1-4064-9465-1093c6b6311c</t>
+          <t>هیپوپیтуیتاریسم در بزرگسالان معمولاً به دلیل انفارکتوس هیپوفیز است که به آن چه می‌گویند؟</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -15220,7 +15238,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2efdce9f-19cf-4b0b-8f13-34eeafca8f35</t>
+          <t>یک زن 30 ساله با سابقه 3 ماهه کاهش وزن 10 کیلوگرمی علیرغم افزایش اشتها مراجعه می‌کند. او همچنین از اضطراب، اسهال و آمنوره شکایت دارد. معاینه یک لرزش ظریف، رفلکس‌های سریع و یک سوفل سیستولیک در سراسر پره‌کوردیوم را نشان می‌دهد. تست بارداری ادرار منفی بود. محتمل‌ترین یافته در معاینه نبض چیست؟</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -15278,7 +15296,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>7afa64b5-16e8-40b7-9dff-7d9098570461</t>
+          <t>یک نوع واکنش حساسیت تأخیری را مشخص کنید - الف) واکنش آرتوس ب) آسم برونشیال ج) کم خونی همولیتیک د) مالتیپل اسکلروزیس</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -15331,7 +15349,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>678e6f66-4d6a-4934-9a92-73fba01fb004</t>
+          <t>در روش ارزیابی نیازهای جامعه به عنوان بخشی از برنامه سلامت باروری و کودک، اهداف برای فعالیت‌های مختلف بهداشتی در چه سطحی تعیین می‌شوند؟</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -15373,7 +15391,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>a60e8ba8-61e6-4591-b97d-7297216fddf5</t>
+          <t>هِم در کدام بخش از سلول‌های اریتروبلاست ساخته می‌شود؟</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -15426,7 +15444,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>54dbe065-6bb4-4bd2-8244-e2ae0c6d191c</t>
+          <t>اسید سیتریک بر روی سطح ریشه اعمال می‌شود:</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -15475,7 +15493,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>35400ada-40b0-4469-bd85-308421fd7c9c</t>
+          <t>شایع‌ترین تومور حفره خلفی جمجمه کدام است؟</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -15532,7 +15550,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>47d7f9a9-f817-410b-8a71-d8caced17fc2</t>
+          <t>یک زن در ماه هشتم بارداری از درد شکم و خونریزی خفیف واژینال شکایت دارد. در معاینه، اندازه رحم بیش از حد انتظار برای سن حاملگی است و صدای قلب جنین شنیده نمی‌شود. تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -15588,7 +15606,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>3f09d790-900d-491f-bebb-f403e3ac600a</t>
+          <t>بیمار با سردرد ناگهانی شدید (مانند رعد و برق) و مردمک‌های گشاد شده مراجعه کرده است. یافته‌ها با کدام یک از موارد زیر سازگار است؟</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -15653,7 +15671,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>51e060f7-623e-4d07-b44f-0522a9ffec6a</t>
+          <t>کاهش ناگهانی و بدون درد بینایی در جداشدگی شبکیه ناشی از کدام مورد است؟</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -15705,7 +15723,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>08028e56-dbec-42c4-95b4-f2dfe17d30a5</t>
+          <t>پمفیگوس ناشی از دارو بیشتر توسط کدام دارو ایجاد می‌شود؟</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -15751,7 +15769,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>566e8ba3-6516-4a2a-b6fd-eec07a966375</t>
+          <t>کدام یک از گزینه‌های زیر به‌ترین توصیف از تهویه آلوئولی و جریان خون در پایه ریه‌ها در مقایسه با رأس ریه‌ها در یک فرد سالم ایستاده است؟</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -15798,7 +15816,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>1c81c6b1-87ca-4b7d-b0e3-39ab2c4d3a42</t>
+          <t>سوراخ شدن تیغه بینی در کدام یک از موارد زیر دیده نمی‌شود؟</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -15844,7 +15862,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>76fb6db4-bb0f-4b97-bbfa-8f31f4e18128</t>
+          <t>استفراغ بیش از حد همراه با انسداد خروجی معده ناشی از تنگی پیلور منجر به کدام مورد می‌شود؟</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -15897,7 +15915,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>0389decd-31b9-4f4e-ac2b-8ff1ce92b4a3</t>
+          <t>کدام یک از داروهای زیر باعث افزایش حرکات دستگاه گوارش نمی‌شود؟</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -15944,7 +15962,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>cac708d1-1cd4-484e-afbb-c6cc92237a22</t>
+          <t>تمامی عبارات زیر در مورد آسیب به عصب پرونئال مشترک صحیح هستند، به جز</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -15995,7 +16013,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>d1d6fc93-cac6-4357-92c8-bd1b95b8c41c</t>
+          <t>بیمار در تست cbnaat خلط، مثبت به mtb بوده است. او علیرغم چندین یادآوری، دیگر به مرکز بهداشت اولیه مراجعه نکرده است. اکنون با هموپتیز غیرحجیم و نگران کننده مراجعه می‌کند. بهترین اقدام بعدی برای این بیمار چیست؟</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -16052,7 +16070,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>4d82e8f5-b8e6-4bfd-b864-b9e4114c9257</t>
+          <t>قد یک نوزاد تازه متولد شده در چه زمانی دو برابر می‌شود؟ سپتامبر 2005، مارس 2010</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -16111,7 +16129,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>9c3f887a-df4c-4395-9984-c82a4fdf69dd</t>
+          <t>یک کودک 4 ساله با تب و افزایش کار تنفسی که به صورت تاکی پنه و ریتراکشن تظاهر می‌یابد، مراجعه می‌کند. رادیوگرافی قفسه سینه پنومونی لوبار را تأیید می‌کند. محتمل‌ترین عامل ایجادکننده چیست؟</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -16164,7 +16182,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>95f8f948-81b2-4434-942a-0f9d07ea0f8f</t>
+          <t>زاویه ای که پرده صماخ با کف مجرا می سازد چند درجه است؟</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -16221,7 +16239,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>d403c03e-ac03-428d-b7f1-4dc766ad7cf1</t>
+          <t>بارزترین ویژگی بیماریزای انتاموبا هیستولیتیکا در بررسی مدفوع تازه چیست؟</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -16275,7 +16293,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>bca39878-dd96-4848-a990-7d1c6559d5ad</t>
+          <t>درمان پزشکی در کدام نوع از اوتیت مدیا چرکی مؤثر نیست؟</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -16330,7 +16348,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>40163b3b-cb53-4aad-9aab-9e83a0aebc58</t>
+          <t>کافه کرونری معمولاً زمانی رخ می‌دهد که فرد -</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -16372,7 +16390,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>641920f7-135b-4ee7-a9c0-eb4a696954c7</t>
+          <t>همه موارد زیر در مورد نوریت اپتیک صحیح هستند، به جز:</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -16424,7 +16442,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>8f6bb305-9f25-4fb9-a0ca-7163d3d068c3</t>
+          <t>آخرین عضوی که در مردان دچار فساد می‌شود کدام است؟</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -16479,7 +16497,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>9bbff51a-c15a-4ec6-a956-310e0d78f50a</t>
+          <t>زمان ایده‌آل برای ترمیم شکاف لب چیست؟</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -16536,7 +16554,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>75e671c7-a49d-43e9-bcc5-33583074b5f3</t>
+          <t>تشخیص افتراقی شایع برای کارسینوم وروکوز چیست؟</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -16593,7 +16611,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>64b1607b-adc4-404f-9640-b54bbfaf83c1</t>
+          <t>بهترین پیش‌آگهی در زنان نابارور در کدام مورد دیده می‌شود/قابل‌برگشت‌ترین شکل ناباروری کدام است؟</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -16659,7 +16677,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>f2197212-f723-4a29-af18-a9614c0ac7f8</t>
+          <t>سندرم مویر-توره نشان‌دهنده کدام مورد است؟</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -16715,7 +16733,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>03323e11-9aa7-4b0b-93a0-264ce95d7787</t>
+          <t>یک بیمار 32 ساله با سندرم پای بیقرار به درمانگاه مراجعه می‌کند. مناسب‌ترین درمان خط اول چیست؟</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -16763,7 +16781,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>aa64cc79-3c76-40e3-b970-2b518681976d</t>
+          <t>فاشیا (نیام) پوشاننده عضله راست شکم چیست؟</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -16814,7 +16832,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>253ffc93-3d37-4f3a-9553-4aab9f122c2c</t>
+          <t>کدام یک از موارد زیر پس از جراحی تیروئید منجر به دیسترس تنفسی نمی‌شود؟</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -16860,7 +16878,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>f9e7ed6c-2781-43b7-9c25-c39e04c07341</t>
+          <t>اسمیر تزانک در آبله مرغان-زوستر چه چیزی را نشان می‌دهد؟</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -16908,7 +16926,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>1936f4ae-3494-47f3-8f75-80df7b70311d</t>
+          <t>کدام ویروس دارای بیش از یک سروتیپ است؟</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -16960,7 +16978,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>373fd102-9dae-44cb-8883-a259ff2016c0</t>
+          <t>آخرین عضوی که در فساد تحت تأثیر قرار می‌گیرد: الف) پروستات ب) رحم ج) کلیه‌ها د) تیروئید</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -17011,7 +17029,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>c1cc8783-8efb-40c4-89b6-61ff7ee46232</t>
+          <t>کدام یک از موارد زیر توسط حذف هافمن حذف می‌شود؟</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -17061,7 +17079,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>76c6bd34-2fd9-4054-8ed8-86495832b39a</t>
+          <t>یک پسر 3 ساله با علائم کمآبی شدید، تحریکپذیری، ضعف و بیحالی شدید به بخش اورژانس کودکان مراجعه کرد. مادرش گزارش میدهد که 8 روز پیش اسهال خونی همراه با تب و درد شکمی داشته است. یافتههای آزمایشگاهی: کمخونی، اختلال عملکرد کلیه، ترومبوسیتوپنی، هیپوناترمی شدید، لکوسیتوز. pt و aptt نرمال، تست کومبس منفی. آنالیز ادرار نشاندهنده هماچوری میکروسکوپی و پروتئینوری خفیف بود. اگر در این بیمار سابقهای از اسهال وجود نداشت، کدامیک از داروهای زیر میتوانست برای او تجویز شود؟</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -17114,7 +17132,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ee7976f0-48fc-414e-b3e0-828e17cd0990</t>
+          <t>کدام یک از موارد زیر که به عنوان داروی پیش بیهوشی استفاده می‌شود، باعث طولانی‌ترین فراموشی می‌شود؟</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -17179,7 +17197,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>276e1733-f4dc-4803-9d51-3eda246af684</t>
+          <t>آب مروارید آفتابگردانی در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -17229,7 +17247,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>7b3b1d2c-f0dc-4472-bdb9-f882bb1519d0</t>
+          <t>کمبود بتا-گلوکوزیداز منجر به کدام بیماری می‌شود؟</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -17277,7 +17295,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>5c9a8a2d-e821-4150-b26f-e7fc0c0ec413</t>
+          <t>اختلالات متابولیسم استخوان با افزایش کدام ویتامین‌ها مرتبط است؟</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -17347,7 +17365,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>b39eba8d-30c0-4f3f-87e7-eaacf146e416</t>
+          <t>عملکرد sida برای چیست؟</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -17397,7 +17415,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>55aba290-2009-407d-b7e7-66fe5f3cb8cc</t>
+          <t>کدام یک از موارد زیر از ویژگی های گلومرولونفریت غشایی تکثیری است؟</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -17455,7 +17473,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>90e2fe75-e30b-45e4-ac5f-ee3970355538</t>
+          <t>شایع‌ترین محل سرطان دهانه رحم:</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -17509,7 +17527,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>8b2e7b95-16b4-4bc8-972b-f2b01090dce9</t>
+          <t>کدام یک از موارد زیر یک نوع از تومور سلول غول‌آسا است؟</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -17555,7 +17573,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>758a5442-6200-46f2-a21b-532c9331f5e9</t>
+          <t>زنی برای پیشگیری از بارداری فقط از قرص پروژستین استفاده می‌کرد. کدام عارضه جانبی احتمال وقوع ندارد؟</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -17603,7 +17621,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>73a3502a-52c4-4bee-abab-33a92edc1fe8</t>
+          <t>کدام یک پروتئین هِم (هموپروتئین) نیست؟</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -17655,7 +17673,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>8d71d3dd-c30c-458b-abe0-8c198e4793a3</t>
+          <t>کدام عبارت در مورد هورمون ضدادراری (adh) صحیح است؟</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -17705,7 +17723,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>f2da670e-7b2c-455e-bc95-5d9fd723430a</t>
+          <t>زبان مگنتایی در کمبود کدام ویتامین دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -17760,7 +17778,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>81f683d3-6fdf-4cfa-9ae9-caa57509f664</t>
+          <t>کدام یک از عبارات زیر در مورد آستروسیتوم نادرست است؟</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -17810,7 +17828,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>4b3f3e73-c9fe-4649-bc3c-7efac39cd361</t>
+          <t>در جایگزینی مایعات پس از سوختگی 20 درصد سطح بدن، نیاز مایعات در 24 ساعت اول به کدام یک از موارد زیر بستگی دارد؟</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -17863,7 +17881,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>1301039d-a296-4632-95b1-325ad8cc915d</t>
+          <t>درمان ریشه‌کن کننده پلاسمودیوم ویواکس با کدام دارو انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -17912,7 +17930,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>43f37c22-9ae2-49ca-9d95-059dab0e94d6</t>
+          <t>nadph برای چه موردی مورد نیاز است؟</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -17961,7 +17979,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>74615a7a-488d-4b6b-8598-09551766b584</t>
+          <t>ادموند لوکارد به خاطر کدام مورد شناخته شده است؟</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -18008,7 +18026,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>86050610-4217-411e-9383-d08b18990f5c</t>
+          <t>شایع‌ترین علت مسمومیت غذایی کلستریدیومی چیست؟</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -18071,7 +18089,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>dcd8a784-47b3-4a05-ab4c-421698bbf999</t>
+          <t>کدام یک از عوامل زیر جزو عوامل بازجذب در پوکی استخوان نیست؟</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -18120,7 +18138,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>b6c837e1-edcd-4c85-a311-a839453939ae</t>
+          <t>کدام یک از ساختارهای زیر با عمل بلع حرکت می‌کنند؟</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -18166,7 +18184,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2de776e2-b80b-436f-8d38-1e94de429857</t>
+          <t>در تشخیص ایدز، معیارهای زیر به جز کدام یک شامل می‌شود؟</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -18213,7 +18231,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>5b47730c-ed7d-4a72-9feb-091d75f7d06f</t>
+          <t>یک بیمار مبتلا به اسکلرودرمی با تنگی نفس حاد مراجعه می‌کند. عکس قفسه سینه سایه‌های رتیکولار دوطرفه در پایه ریه‌ها را نشان می‌دهد. مرحله بعدی بررسی در این بیمار چیست؟</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -18263,7 +18281,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>e526dad3-71a5-43b0-9ad8-d99587c14faa</t>
+          <t>استفراغ مکرر ناشی از انسداد روده باعث چه چیزی می‌شود؟</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -18318,7 +18336,11 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>6f3c1803-0b17-419d-9f29-feb894f22874</t>
+          <t>کدام یک وابسته به پیریدوکسین نیست؟  
+الف) هوموسیستینوری  
+ب) بیماری ادرار شربت افرا  
+ج) اگزالوری  
+د) گزانتینوری</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -18372,7 +18394,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>1966b21f-d30e-4fc3-aa05-493fecfd5e9f</t>
+          <t>مدیریت آسیب شریان سابکلاوین ناشی از قرار دادن ناخواسته کاتتر مرکزی شامل همه موارد زیر به جز کدام است؟</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -18422,7 +18444,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>5ec68b85-3e54-483e-bf2b-d90c69e8c4a9</t>
+          <t>شایع‌ترین محل کارسینوم نازوفارنکس کدام است؟</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -18469,7 +18491,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2c4a6f35-b26f-4011-8ffa-80b7ee922c7e</t>
+          <t>نقطه a در رادیوتراپی برای کارسینوم دهانه رحم مربوط به کدام است؟</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -18518,7 +18540,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>11de0f84-c3dd-4248-b022-df2ae5e17ab1</t>
+          <t>قاعدگی زودرس به وقوع قاعدگی قبل از سن اشاره دارد</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -18565,7 +18587,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>28ab274a-0763-4f92-b001-331978312e21</t>
+          <t>جراحی برای ماستیت پری داکتال</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -18614,7 +18636,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>d4421534-c18e-4cb3-af91-91534eb7aac1</t>
+          <t>شایع ترین محل درگیری خارج پوستی در عفونت آبله مرغان کدام است؟</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -18661,7 +18683,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>5d294d29-1282-4146-ac40-17bbe7221937</t>
+          <t>نمودار داده شده به احتمال زیاد نشان‌دهنده کدام مورد است؟</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -18720,7 +18742,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>c9668336-75b3-4ad2-bd61-8e026765917d</t>
+          <t>تعداد باکتری در دوازدهه-</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -18768,7 +18790,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2022bc6b-d58b-4e46-8c25-e05f9a0f3a80</t>
+          <t>در مورد اسپاسم جسدی کدام گزینه صحیح است؟</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -18828,7 +18850,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ae85ed60-e3c9-4f4d-8891-0d3e94aaf91c</t>
+          <t>کدام یک از عضلات زیر موجب جمع شدن کتف نمی‌شود؟</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -18875,7 +18897,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>71e4cdc4-f64f-45be-8a84-fd2d1bcb9a0f</t>
+          <t>مردی با یک توده در ناحیه گردن مراجعه کرده است که رشد کندی دارد و باعث درد یا سایر علائم نمی‌شود. در معاینه، توده‌ای سفت، غیرحساس و ضربان‌دار در ناحیه دو شاخه شدن شریان کاروتید مشاهده می‌شود. تشخیص تومور جسم کاروتید توسط آنژیوگرام تأیید شده است. تومور جسم کاروتید از کجا منشأ می‌گیرد؟</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -18933,7 +18955,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>de6626c6-58dd-4672-abed-0b4384c9e8b7</t>
+          <t>قطع تارسومتاتارسال و قطع اینترتارسال به ترتیب به چه نام هایی شناخته می شوند؟</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -18987,7 +19009,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>eb9e128c-1993-4e70-9280-1b14382a6b15</t>
+          <t>کدام مورد در 5 مورد تمیز در انجام زایمان گنجانده نشده است؟</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -19041,7 +19063,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ad2adf34-8785-43b2-b89e-a9ef509092c7</t>
+          <t>فلیکتن ناشی از چیست؟</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -19087,7 +19109,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>48413a10-2d44-43fc-a662-e1277c9df98e</t>
+          <t>کدام روش بهترین بررسی برای ارزیابی پلاک آترواسکلروز است؟</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -19136,7 +19158,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>0e98c3a6-c4dc-430f-8a5c-a9d0c7d8da76</t>
+          <t>کدام گزینه در مورد هرم جمعیت صحیح نیست؟</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -19193,7 +19215,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>607f6421-73c7-4a29-afc4-df4dc92c1718</t>
+          <t>دوز روزانه آلبندازول در نوروسیستیسرکوزیس در کودکان چقدر است؟</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -19244,7 +19266,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>bc5be87d-6f29-4cf7-bfd1-7f21d1b6626f</t>
+          <t>داروی ایمن برای بحران فشار خون در دوران بارداری کدام است؟</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -19297,7 +19319,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6e1bda68-9836-424a-8093-8f2b5316e142</t>
+          <t>کدام یک از داروهای زیر بر علیه هپاتیت b فعال نیست؟</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -19350,7 +19372,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2ee979cd-cf8d-4bf7-92dd-0649087e0c68</t>
+          <t>لنفاتیک های مجرای اسفنجی به کدام گره های لنفاوی زیر تخلیه می شوند؟</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -19396,7 +19418,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>56732cdb-f400-4b52-b6e4-b5773c8506c9</t>
+          <t>داروی مورد استفاده در استئودیستروفی کلیوی:</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -19445,7 +19467,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ea6afb11-7321-4d98-b807-20adef48b873</t>
+          <t>مجرای توراسیک (thoracic duct) کدام قسمت از بدن را تخلیه نمی‌کند؟</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -19497,7 +19519,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>5c6fe1c0-5efb-4932-b249-5d2e6bdc9903</t>
+          <t>عوامل آشکارساز برای انگیزه دادن و آموزش بیماران در مورد پلاک و روش‌های بهداشت دهان استفاده می‌شوند. این عوامل می‌توانند به بیمار کمک کنند تا پلاک زیر لثه را مشاهده کند.</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -19552,7 +19574,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>67e5227d-f386-47ec-8e07-fe2a00998b41</t>
+          <t>درمان pair از طریق پوستی که در درمان کیست هیداتید کبدی بدون عارضه استفاده می‌شود، می‌تواند با عوارض زیر همراه باشد، به جز</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -19596,7 +19618,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>e2586e51-94d2-48fc-8ee8-2aab2a161381</t>
+          <t>در مورد توکسویید کزاز کدام گزینه/گزینه‌ها صحیح است؟</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -19651,7 +19673,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ab2b7c0c-9ecd-4613-b649-0f4c3a874c3f</t>
+          <t>کدام گزینه در مورد تومور جسم کاروتید نادرست نیست؟</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -19708,7 +19730,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ad8c6225-9eb2-4800-8273-da030fd36e35</t>
+          <t>یک بیمار 44 ساله به پزشک عمومی خود مراجعه می‌کند و از دوبینی شکایت دارد. در معاینه، او قادر به اداکشن یا ابداکشن چشم راست خود نیست. در معاینه بیشتر، مشخص می‌شود که او همچنین قادر به اداکشن چشم چپ خود نیست. بقیه معاینه فیزیکی طبیعی است. کدام یک از موارد زیر محتمل‌ترین محل ضایعه در این بیمار است؟</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -19774,7 +19796,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>b50cf098-f7ee-40b2-a18b-630e86c4d625</t>
+          <t>طحال فرعی در تمام مکان‌های زیر یافت می‌شود، به جز:</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -19836,7 +19858,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ede67b41-0ecd-4c59-991f-56b13f9f2dc0</t>
+          <t>یک دختر ۵ ساله با رنگ پریدگی مراجعه می‌کند، معاینه شکم نشان‌دهنده هپاتوسپلنومگالی است. کدام یک از آزمایش‌های زیر برای تشخیص مناسب‌تر است؟</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -19885,7 +19907,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>32536d1b-8b71-4fc2-8213-3e815bde2b4c</t>
+          <t>همه موارد زیر به جز یکی از عوارض آزبستوز هستند</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -19937,7 +19959,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>bff4b746-c039-4137-bc9f-4b9b576b1179</t>
+          <t>درمان پزشکی پانکراتیت شامل موارد زیر است:</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -19987,7 +20009,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>96d23d40-fd11-4d67-8513-1d776f927d89</t>
+          <t>همه موارد زیر از عوامل خطر برای تومورهای بیضه هستند به جز:</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -20034,7 +20056,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ae269d1c-1d27-4ff3-adc7-519ad7e4c5af</t>
+          <t>نسبت انرژی به پروتئین در شیر انسان چقدر است؟</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -20083,7 +20105,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>5d2b5fde-bfdb-4bc4-a172-90a7e6144460</t>
+          <t>در مورد میکوزیس فونگوئید کدام گزینه نادرست است؟</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -20141,7 +20163,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>6062c84a-fb44-492b-8806-a91b0040180a</t>
+          <t>مزایای بیماری تحت طرح esi برای چه مدت زمانی در دسترس است؟</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -20197,7 +20219,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>79c68b64-6116-42b4-9fb6-befe2cfa40dd</t>
+          <t>یک مرد 48 ساله الکلی مبتلا به سیروز، ژنیکوماستی دو طرفه دارد. کدام یافته فیزیکی همان پاتوژنز ژنیکوماستی را دارد؟</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -20250,7 +20272,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>464664f0-d4b6-4f06-ae78-d0904167708b</t>
+          <t>آلفا-فتوپروتئین در کدام مورد تشخیص داده می‌شود؟</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -20294,7 +20316,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>d93cc8a3-2bb0-43db-875a-342cb6d769d6</t>
+          <t>ناهنجاری مادرزادی رحم چندگزینه‌ای چیست؟</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -20345,7 +20367,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ba233049-e69a-470a-bdce-fcfbfb82a765</t>
+          <t>سینوس مرتبط با پاتولوژی پری اپیکال نیازمند کدام مورد است؟</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -20402,7 +20424,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6f2c4a02-4ad1-4f38-a5f6-405e8ec77f17</t>
+          <t>پروفایل بافت نرم در بیماران مکیدن انگشت شست چگونه است؟</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -20465,7 +20487,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>993b6518-0ee4-40f8-ab8e-fe99a426b9d3</t>
+          <t>یک بیمار به‌طور منظم داروهایی برای مشکلات پزشکی همزمان مصرف می‌کند. کدام یک از داروهای زیر را می‌توان قبل از عمل جراحی شکم با حداقل خطر عوارض جانبی به‌صورت ایمن قطع کرد؟</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -20532,7 +20554,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>cdfe6173-d997-4e39-972f-9e1f61451f86</t>
+          <t>hhv-8 باعث کدام بیماری می‌شود؟</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -20592,7 +20614,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>42a98d32-e339-43b4-b067-e181f097ab60</t>
+          <t>مردی با درد و ترشح مداوم گوش، درد پشت کاسه چشم و ماستوئیدکتومی رادیکال اصلاح شده تحت عمل جراحی قرار گرفت. بیمار با ترشح مداوم مراجعه می‌کند، تشخیص شما چیست؟</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -20643,7 +20665,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ff9fc15f-eeda-4ddb-8c31-1730582252e2</t>
+          <t>درمان اوتیت مدیا سروز چیست؟</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -20692,7 +20714,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>82ba1780-e608-4092-b9b2-3a91ff625aae</t>
+          <t>برای رضایت به سقط جنین، رضایت از چه کسی گرفته می‌شود؟</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -20745,7 +20767,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>532f6e0d-08f8-4cd5-8d2e-2852db2636f4</t>
+          <t>کدام یک از محل‌های زیر مسئول نقص حافظه در سندرم ورنیکه کورساکوف است؟</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -20798,7 +20820,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>d6bb8938-27a0-4fed-930a-8f5ee71de81d</t>
+          <t>در مورد تریزومی‌ها کدام گزینه صحیح است؟</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -20848,7 +20870,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>229e499d-bc82-46ce-9313-c493ba20324b</t>
+          <t>توصیه کمیته کریشنان برای چه بود؟</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -20901,7 +20923,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>743beda7-7147-4c6e-bac9-fac4787969f4</t>
+          <t>کدام یک از موارد زیر در مورد کم خونی میکروسیتیک هیپوکرومیک انتظار نمی‌رود؟</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -20952,7 +20974,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>1b4cdb90-180d-473e-a838-d8c255789deb</t>
+          <t>تست فورس داکشن مثبت در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -21003,7 +21025,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>dfe92c5a-1b60-47fa-a934-2f765f019810</t>
+          <t>هنگام سازگاری با ارتفاع جدید، بدن ph خود را از طریق چه مکانیسمی حفظ می‌کند؟</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -21063,7 +21085,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>1fb64742-295b-4742-a358-4ea02c3d2901</t>
+          <t>معاینه با لامپ اسلیت در بررسی کدام قسمت کمک می‌کند؟</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -21112,7 +21134,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>a7853fad-e7d0-463f-80c5-fb7276b05734</t>
+          <t>میکروآلبومینوری به عنوان سطح پروتئین ادرار تعریف می‌شود که در محدوده زیر است -</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -21162,7 +21184,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>be2ccb7e-de3f-4b7e-b8ba-ee87f1f9ea1c</t>
+          <t>کدام یک از فاسیای توراکولومبار مشتق می‌شود؟</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -21210,7 +21232,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ac04ddc0-ffb6-40ec-9ab8-d661d5926ac8</t>
+          <t>کام نرم توسط کدام عصب تغذیه می‌شود؟</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -21258,7 +21280,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>97ded530-2b50-496b-ad98-9ff3ea43557e</t>
+          <t>وزن طبیعی رحم چقدر است؟</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -21307,7 +21329,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>77f0eb34-01ea-4582-b853-653e500b8812</t>
+          <t>همه موارد زیر بیهوشی سطحی هستند به جز -</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -21357,7 +21379,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>755c474c-f2d1-4064-9465-1093c6b6311c</t>
+          <t>ترکیب dna پلاسمیدی و dna کروموزومی چه چیزی را تشکیل می‌دهد؟</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -21405,7 +21427,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2efdce9f-19cf-4b0b-8f13-34eeafca8f35</t>
+          <t>کدام یک از ساختارهای زیر از پشت رباط اینگوینال عبور می‌کنند؟  
+1. شاخه فمورال عصب ژنیتوفمورال  
+2. شریان اپیگاستریک سطحی  
+3. عضله پسواس ماژور  
+4. ورید فمورال  
+5. ورید صافن</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -21471,7 +21498,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>7afa64b5-16e8-40b7-9dff-7d9098570461</t>
+          <t>فرآیند نابودی تمامی اشکال حیات از جمله اسپورها به چه نامی شناخته می‌شود؟</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -21524,7 +21551,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>678e6f66-4d6a-4934-9a92-73fba01fb004</t>
+          <t>همه موارد زیر در مورد واکسن غیرفعال فلج اطفال صحیح است به جز: سپتامبر 2012</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -21579,7 +21606,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>43dbd144-5952-4554-be5c-fff5067fd337</t>
+          <t>کدام یک از موارد زیر مسئول تولید گرمای غیرلرزشی در بزرگسالان است؟</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -21627,7 +21654,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>1e9f8ed0-3a3f-49b2-afc2-4688c60cdc0e</t>
+          <t>hb - barts چیست؟</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -21687,7 +21714,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>35400ada-40b0-4469-bd85-308421fd7c9c</t>
+          <t>یک زن 28 ساله مبتلا به کم‌خونی داسی‌شکل با یک مرد 31 ساله بدون هیچ ناهنجاری ازدواج می‌کند. احتمال ابتلای فرزندان آنها به (i) بیماری کم‌خونی داسی‌شکل و (ii) صفت کم‌خونی داسی‌شکل به ترتیب چقدر است؟</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -21751,7 +21778,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>47d7f9a9-f817-410b-8a71-d8caced17fc2</t>
+          <t>دیسفاژی توسط همه موارد زیر به جز ... ایجاد می‌شود.</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -21801,7 +21828,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>3f09d790-900d-491f-bebb-f403e3ac600a</t>
+          <t>بیماری استخوان مرمری، که با افزایش تراکم استخوان مشخص می‌شود، به دلیل جهش در ژن کدکننده کدام آنزیم است؟</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -21849,7 +21876,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>a6c73a3e-97d1-4e2d-a7f0-654966afc99d</t>
+          <t>کدام لایه باعث خونریزی شدید در پوست سر می‌شود؟</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -21904,7 +21931,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>f99ce7d6-2754-4ff1-a870-b8e25b4c016b</t>
+          <t>همه موارد زیر در مورد سندرم بارتر صحیح است به جز؟</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -21950,7 +21977,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>cac708d1-1cd4-484e-afbb-c6cc92237a22</t>
+          <t>چاقی در کدام یک از موارد زیر مشاهده نمی‌شود؟</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -22006,7 +22033,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>f3ea4fe1-2b51-4e62-83fe-cdaeef568395</t>
+          <t>داروی انتخابی در itp نوزادی کدام است؟</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -22058,7 +22085,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>d1d6fc93-cac6-4357-92c8-bd1b95b8c41c</t>
+          <t>اولین دنده به کدام مورد مرتبط نیست؟</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -22104,7 +22131,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>4d82e8f5-b8e6-4bfd-b864-b9e4114c9257</t>
+          <t>سد خونی-مغزی در کدام قسمت وجود ندارد؟</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -22155,7 +22182,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>8dc7214c-b4af-420d-ae6b-34f52af230e5</t>
+          <t>همه موارد زیر از عوارض سوکسینیل کولین هستند به جز-</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -22208,7 +22235,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>9c3f887a-df4c-4395-9984-c82a4fdf69dd</t>
+          <t>عبارت صحیح در مورد فیبرهای پورکینج: سپتامبر 2009، مارس 2013</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -22256,7 +22283,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>95f8f948-81b2-4434-942a-0f9d07ea0f8f</t>
+          <t>بررسی خلط در تشخیص کدام یک از موارد زیر مفید نیست؟</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -22308,7 +22335,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>e3d49ee8-77a7-4aa4-a33a-cf35e377ce2a</t>
+          <t>بیمار مبتلا به گواتر چندندولی طولانی مدت دچار گرفتگی صدا می‌شود؛ همچنین، تورم به‌طور ناگهانی افزایش اندازه پیدا می‌کند. تشخیص احتمالی چیست؟</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -22368,7 +22395,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>d403c03e-ac03-428d-b7f1-4dc766ad7cf1</t>
+          <t>خونریزی شدید (هموپتزی) در تنگی میترال از کجا نشأت می‌گیرد؟</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -22420,7 +22447,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>08fd1340-756c-46ef-b8a8-10c66ede7188</t>
+          <t>دوز روی در اسهال برای کودک یک ساله چقدر است؟</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -22476,7 +22503,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>a05ce1a4-3805-4c66-a3fe-3cd09dc91e4e</t>
+          <t>تست آلن برای چه موردی استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -22528,7 +22555,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>bca39878-dd96-4848-a990-7d1c6559d5ad</t>
+          <t>همه موارد زیر از ویژگی‌های کاهش تعداد cd4 به کمتر از 50 سلول در میلی‌متر مکعب هستند، به جز:</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -22576,7 +22603,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>641920f7-135b-4ee7-a9c0-eb4a696954c7</t>
+          <t>متداول‌ترین ماده مورد استفاده پس از پالپکتومی چیست؟</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -22623,7 +22650,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>8f6bb305-9f25-4fb9-a0ca-7163d3d068c3</t>
+          <t>عفونت مکرر منجر به تشکیل کدام نوع سنگ می‌شود؟</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -22673,7 +22700,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>75e671c7-a49d-43e9-bcc5-33583074b5f3</t>
+          <t>بر اساس طبقه‌بندی آلونسو-لج، نوع ivb چیست؟</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -22728,7 +22755,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>64b1607b-adc4-404f-9640-b54bbfaf83c1</t>
+          <t>نرخ مرگ و میر نوزادان شامل تمام موارد زیر به جز کدام یک است؟</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -22781,7 +22808,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>03323e11-9aa7-4b0b-93a0-264ce95d7787</t>
+          <t>در سندرم دیسترس تنفسی حاد (ards)، حجم جاری مکانیکی (tv) چقدر است؟</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -22828,7 +22855,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>aa64cc79-3c76-40e3-b970-2b518681976d</t>
+          <t>لکه های سیاه در کدام یک از موارد زیر دیده می شود؟</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -22877,7 +22904,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>f9e7ed6c-2781-43b7-9c25-c39e04c07341</t>
+          <t>علامت تروسو در کدام مسمومیت مثبت است؟</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -22934,7 +22961,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>1936f4ae-3494-47f3-8f75-80df7b70311d</t>
+          <t>کدام یک از شرایط پیش سرطانی نیست؟</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -22982,7 +23009,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>373fd102-9dae-44cb-8883-a259ff2016c0</t>
+          <t>تمام موارد زیر به جز یکی از عوارض داروهای ضدافسردگی سه حلقه‌ای هستند</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -23038,7 +23065,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>c1cc8783-8efb-40c4-89b6-61ff7ee46232</t>
+          <t>کدام یک از موارد زیر کمترین mac را دارد؟</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -23098,7 +23125,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>a883f952-fb16-4893-b66a-a3106b15c35e</t>
+          <t>بورلیا رکورنتیس توسط چه چیزی منتقل می‌شود؟</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -23151,7 +23178,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2b24d194-8e5f-488d-b1f2-554e3c871ef7</t>
+          <t>در یک مطالعه برای اثبات سیگار کشیدن به عنوان یک عامل خطر برای یک بیماری، 30 نفر از 50 سیگاری به بیماری مبتلا شدند در حالی که 10 نفر از 50 غیرسیگاری به بیماری مبتلا شدند. نسبت شانس (odds ratio) چقدر است؟</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -23212,7 +23239,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>c29680d9-2482-400b-89df-18ac52250a7a</t>
+          <t>کلر باقیمانده توسط کدام روش تشخیص داده می‌شود؟</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -23258,7 +23285,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>e82db93e-e3d1-42f5-8bb5-e22ef68d6894</t>
+          <t>یک مرد 40 ساله، سیگاری مزمن، با درد ناگهانی اپیگاستریک در طول یک ساعت گذشته مراجعه می‌کند. نوار قلب او افزایش قطعه st در لیدهای تحتانی را نشان می‌دهد. مداخله فوری چیست؟</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -23312,7 +23339,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>b39eba8d-30c0-4f3f-87e7-eaacf146e416</t>
+          <t>فرسایش استخوان در تمام موارد زیر دیده می‌شود به جز -</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -23360,7 +23387,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>968b5a85-1496-4f65-aabd-ed8a39e7ae10</t>
+          <t>در تجویز بیحسی موضعی (la) در ناحیه عفونت، بیشتر la به چه فرمی وجود دارد؟</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -23411,7 +23438,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>15c2fc0b-4391-4cfd-a9f3-00fbcdd51b42</t>
+          <t>شایع‌ترین عفونت کرمی در ایدز کدام است؟</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -23462,7 +23489,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>8a0778b7-8bcc-4648-a577-63b59b85a6ad</t>
+          <t>تعداد شاخه‌های شریان کاروتید داخلی در گردن چند تا است؟</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -23513,7 +23540,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>55aba290-2009-407d-b7e7-66fe5f3cb8cc</t>
+          <t>فواید غیر پیشگیری از بارداری قرص های ضد بارداری خوراکی در برابر پیشرفت همه موارد زیر است به جز: مارس 2012</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -23569,7 +23596,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>d974fdb4-034e-46e7-9204-c4e36871066e</t>
+          <t>یک وزنه‌بردار 34 ساله به دلیل مشکل در راه رفتن به درمانگاه سرپایی مراجعه می‌کند. در معاینه فیزیکی مشاهده می‌شود که بیمار در باز کردن قفل مفصل زانو برای خم کردن پا مشکل دارد. کدام یک از عضلات زیر به احتمال زیاد آسیب دیده است؟</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -23618,7 +23645,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>90e2fe75-e30b-45e4-ac5f-ee3970355538</t>
+          <t>پولیپ های روده ای که به طور بالقوه می توانند به سرطان تبدیل شوند:</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -23664,7 +23691,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>8b2e7b95-16b4-4bc8-972b-f2b01090dce9</t>
+          <t>رترکتایل مزانتر ممکن است در کدام یک از موارد زیر دیده شود؟</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -23721,7 +23748,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ee4ef7f0-1d00-42e0-8a87-7563ba3c6a7b</t>
+          <t>ادم حنجره - یک وضعیت تهدیدکننده زندگی که در ارتباط با کدام یک از موارد زیر دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -23767,7 +23794,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>73a3502a-52c4-4bee-abab-33a92edc1fe8</t>
+          <t>علت ایجاد لاروا کورنز: مارس 2013</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -23820,7 +23847,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>8d71d3dd-c30c-458b-abe0-8c198e4793a3</t>
+          <t>علامت اولندورف در کدام مرحله از سیفلیس دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -23872,7 +23899,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>186d1036-4740-434c-8d43-5a474452f595</t>
+          <t>یک کودک با کمردرد، یک مهره پشتی فروریخته منفرد با حفظ فضای دیسک بین مهره‌ای و بدون شواهدی از توده بافت نرم نشان می‌دهد. محتمل‌ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -23931,7 +23958,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>81f683d3-6fdf-4cfa-9ae9-caa57509f664</t>
+          <t>ضایعه زیرترقوه‌ای سل به چه نامی شناخته می‌شود؟</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -23978,7 +24005,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>d239f1b7-2ac8-465e-93e8-ba6e45d67657</t>
+          <t>پروتئوس میرابیلیس با کدام نوع سنگ کلیه مرتبط است؟</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -24030,7 +24057,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>4b3f3e73-c9fe-4649-bc3c-7efac39cd361</t>
+          <t>کدام یک از موارد زیر واکسن زنده است؟</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -24084,7 +24111,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>953b1730-42e6-4dac-bca7-3d595aeb896e</t>
+          <t>اگر نوار ادرار +3 نشان دهد، سطح پروتئین در ادرار بر حسب mg/dl چقدر است؟</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -24132,7 +24159,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>42427729-16dd-48ae-a7f0-de3585356972</t>
+          <t>ترمیم ایده‌آل پس از پالپوتومی در دندان شیری کدام است؟</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -24189,7 +24216,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>175a2dbb-2556-484b-bbc7-e0f04d220dcc</t>
+          <t>با درمان آهن، هموگلوبین به میزان زیر افزایش می یابد:</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -24248,7 +24275,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>86050610-4217-411e-9383-d08b18990f5c</t>
+          <t>شایع‌ترین علت سندرم ورمیس قدامی _______________ است.</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -24297,7 +24324,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>3b5b8a11-e3f1-4857-81f2-1d21dab1511d</t>
+          <t>شایع‌ترین علت انسداد حاد روده چیست؟</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -24356,7 +24383,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>c3d1dd95-8d4f-4a89-a47a-126331018ebc</t>
+          <t>برسون و یالو برای اولین بار کدام آزمایش را توصیف کردند؟</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -24413,7 +24440,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2de776e2-b80b-436f-8d38-1e94de429857</t>
+          <t>کلسیفیکاسیون پری آرتیکولار در کدام یک از موارد زیر دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -24460,7 +24487,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>6646c7cf-60ff-4173-8ed6-daba48b29001</t>
+          <t>میانگین فاصله زمانی بین قرار گرفتن در معرض پرتودرمانی و ایجاد استئوسارکوم پس از پرتودرمانی</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -24512,7 +24539,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>1966b21f-d30e-4fc3-aa05-493fecfd5e9f</t>
+          <t>کدام یک از موارد زیر در مورد طویل شدن دهانه رحم نادرست است؟</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -24565,7 +24592,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>5ec68b85-3e54-483e-bf2b-d90c69e8c4a9</t>
+          <t>شریان پانکرآتیکودئودنال فوقانی شاخه ای از کدام شریان است؟</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -24629,7 +24656,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2c4a6f35-b26f-4011-8ffa-80b7ee922c7e</t>
+          <t>یک مرد 26 ساله با درد در ناحیه دندان پایین سمت راست به کلینیک دندانپزشکی مراجعه کرد. در معاینه، مشخص شد که پری کورونیت در دندان شماره 48 وجود دارد. فیلتر ذاتی دستگاه مورد استفاده 3 میلیمتر آلومینیوم است که با 70 کیلوولت کار می‌کند. با استفاده از این دستگاه، میزان تابش سطحی:</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -24687,7 +24714,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>998f7851-f670-4363-abc6-62fce9df4d67</t>
+          <t>چیلوسکوپی مطالعه اثرات کدام قسمت است؟</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -24733,7 +24760,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>28ab274a-0763-4f92-b001-331978312e21</t>
+          <t>سونوگرافی با تزریق سالین همچنین نامیده می‌شود؟</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -24780,7 +24807,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>d4421534-c18e-4cb3-af91-91534eb7aac1</t>
+          <t>رویش‌های روی سطح زیرین دریچه‌های a.v. در کدام مورد یافت می‌شود؟</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -24830,7 +24857,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>fb0671ce-8021-488a-9d0e-d38e5ded6d91</t>
+          <t>سر استخوان کتف کدام است؟</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -24881,7 +24908,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>b0f60cde-5ffa-4f74-b9e4-00cfc6a31bf8</t>
+          <t>صدای سوم قلب در تمام موارد زیر دیده می‌شود به جز</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -24927,7 +24954,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>29302b53-95b7-45a6-b79b-f76b584298ea</t>
+          <t>گروه‌های اصلی فیبرهای آسیب‌دیده در ضایعه اولیه ژنژیویت کدامند؟</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -24980,7 +25007,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>c442150b-dd48-44b4-a230-3c01a5d1804a</t>
+          <t>کدام فیبر از بخش رترولنتیکولار کپسول داخلی عبور نمی‌کند؟</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -25033,7 +25060,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>c9668336-75b3-4ad2-bd61-8e026765917d</t>
+          <t>ریتم پایه تنفس توسط کدام بخش حفظ می‌شود؟</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -25088,7 +25115,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2022bc6b-d58b-4e46-8c25-e05f9a0f3a80</t>
+          <t>کدام یک از مکانیسم‌های زیر باعث مقاومت سویه‌های استرپتوکوکوس پنومونیه به آنتی‌بیوتیک رایج سیپروفلوکساسین می‌شود؟</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -25139,7 +25166,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>f6bad166-57c7-4b06-be93-cac43e5f892f</t>
+          <t>کدام وسیله برای ثبت پارگی پرده بکارت در قربانی تجاوز استفاده می‌شود؟ ai 12; neet 15</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -25201,7 +25228,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ae85ed60-e3c9-4f4d-8891-0d3e94aaf91c</t>
+          <t>در مقایسه با شیر گاو، شیر انسان محتوای کمتری از همه موارد زیر دارد به جز -</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -25256,7 +25283,8 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>71e4cdc4-f64f-45be-8a84-fd2d1bcb9a0f</t>
+          <t>یک مرد 45 ساله با درد در ناحیه دندان خلفی فک پایین به کلینیک دندانپزشکی مراجعه می‌کند. معاینه داخل دهانی، پوسیدگی دندان 36 را نشان می‌دهد. درمان ریشه انجام شده و باید روکش زیرکونیا قرار داده شود. دندانپزشک با ماده قالب‌گیری پلی سولفاید قالب می‌گیرد.  
+زمان کارکرد این ماده (بر حسب دقیقه) چقدر است؟</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -25304,7 +25332,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>2c3adf10-2bb9-4f73-a3f7-963a05a2267c</t>
+          <t>همه موارد زیر در مورد استرپتوکوک صحیح است به جز</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -25354,7 +25382,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>eb9e128c-1993-4e70-9280-1b14382a6b15</t>
+          <t>اونکوژن فاکتور رشد کدام است؟</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -25407,7 +25435,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>8370aaa5-0765-4236-a2c7-281479701e0b</t>
+          <t>کدام شریان به مدولا خونرسانی نمی‌کند؟</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -25462,7 +25490,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>48413a10-2d44-43fc-a662-e1277c9df98e</t>
+          <t>کدام یک از داروهای زیر فقط به جایگاه آنیونی کولین استراز متصل می‌شود؟</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -25520,7 +25548,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>607f6421-73c7-4a29-afc4-df4dc92c1718</t>
+          <t>پولیومیلیت عمدتاً از چه راهی منتقل می‌شود؟ مارس 2013</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -25568,7 +25596,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>6e1bda68-9836-424a-8093-8f2b5316e142</t>
+          <t>در درمان برادی کاردی شدید، تمام موارد زیر می‌توانند بهترین روش درمان باشند به جز-</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -25618,7 +25646,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2ee979cd-cf8d-4bf7-92dd-0649087e0c68</t>
+          <t>همه موارد زیر در ماستوئیدکتومی رادیکال حذف می‌شوند به جز؟</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -25668,7 +25696,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>56732cdb-f400-4b52-b6e4-b5773c8506c9</t>
+          <t>چپرون‌ها در چه فرآیندی کمک می‌کنند؟</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -25717,7 +25745,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>e0e380e3-dc45-4cfc-ab3e-d2d8de5068a6</t>
+          <t>فردی با علائم پنومونی مراجعه می‌کند. نمونه خلط او برای کشت ارسال می‌شود. باکتری به‌دست‌آمده کوکسی گرم مثبت به صورت زنجیره‌ای و کلنی‌های آلفا همولیتیک روی آگار گوسفند است. کدام یک از موارد زیر به تأیید تشخیص کمک می‌کند؟</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -25775,7 +25803,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ea6afb11-7321-4d98-b807-20adef48b873</t>
+          <t>نیاز پروتئینی یک فرد بالغ چقدر است؟</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -25822,7 +25850,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>19b1eba1-26b7-4eca-9bd1-57f93280efde</t>
+          <t>استخوان‌سازی درون غضروفی در کدام یک مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -25874,7 +25902,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>94cb0542-4324-4175-9ed5-d81f80178f40</t>
+          <t>خط ohgren از کدام نقاط عبور می‌کند؟</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -25931,7 +25959,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>dbfa45ce-f258-414e-8bae-c2c700a0c3c1</t>
+          <t>آکانتوز نامنظم در کدام یک از موارد زیر مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -25981,7 +26009,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>67e5227d-f386-47ec-8e07-fe2a00998b41</t>
+          <t>گیرنده‌های موجود در هسته برای همه موارد زیر به جز کدام یک است؟</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -26032,7 +26060,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>e2586e51-94d2-48fc-8ee8-2aab2a161381</t>
+          <t>بازپرسی توسط مقام قضایی در تمام موارد زیر انجام می‌شود به جز</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -26089,7 +26117,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ab2b7c0c-9ecd-4613-b649-0f4c3a874c3f</t>
+          <t>تمامی عبارات زیر در مورد کلانژیت اسکلروزان اولیه صحیح هستند، به جز:</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -26136,7 +26164,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ad8c6225-9eb2-4800-8273-da030fd36e35</t>
+          <t>کدام یک باعث اسیدوز متابولیک هیپرکلرمیک می‌شود؟</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -26194,7 +26222,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>b50cf098-f7ee-40b2-a18b-630e86c4d625</t>
+          <t>ماده ضد باکتری موجود در اشک چیست؟</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -26245,7 +26273,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>193395e3-1740-49b1-90df-b11ddb4d1433</t>
+          <t>شایع‌ترین عارضه جانبی هالوپریدول چیست؟</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -26290,7 +26318,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>bff4b746-c039-4137-bc9f-4b9b576b1179</t>
+          <t>در مورد گلوتامات دهیدروژناز کدام گزینه صحیح است؟ a/e</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -26346,7 +26374,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ae269d1c-1d27-4ff3-adc7-519ad7e4c5af</t>
+          <t>کدام یک بیشترین ارتباط را با زگیل تناسلی (ولووال) دارد؟</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -26400,7 +26428,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>6062c84a-fb44-492b-8806-a91b0040180a</t>
+          <t>جدایی آلبومینو-سیتولوژیک در مایع مغزی-نخاعی ویژگی کدام یک از موارد زیر است؟</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -26446,7 +26474,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>d93cc8a3-2bb0-43db-875a-342cb6d769d6</t>
+          <t>ظرفیت کلی ریه‌ها چقدر است؟</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -26494,7 +26522,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>a05100c6-2508-4f16-ac7e-0b7d314623ba</t>
+          <t>شایع‌ترین علت گانگلیونوپاتی حسی در میان گزینه‌های زیر کدام است؟</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -26549,7 +26577,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>da95ee6b-743c-4aa8-9ca1-b189bb2578b5</t>
+          <t>لپتومننژها از چه تشکیل شده‌اند؟</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -26600,7 +26628,11 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>cdfb4b9f-3bd4-4b89-a9ce-f36cc7bfb356</t>
+          <t>کدام یک از اختلالات زیر با والپروئیک اسید درمان می‌شوند؟  
+1. کره سیدنهام  
+2. میگرن  
+3. مانیا  
+4. اختلال وسواس فکری-عملی</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -26667,7 +26699,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ba233049-e69a-470a-bdce-fcfbfb82a765</t>
+          <t>کدام یک از متابولیت‌های زیر توسط تمام سلول‌ها برای گلیکولیز، سنتز گلیکوژن و مسیر شانت مونوفسفات هگزوز استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -26727,7 +26759,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>05441a46-9a06-4b7e-8157-5527b8057125</t>
+          <t>یک مرد 24 ساله با سابقه درد شکمی متناوب و کرامپی از 12 ساعت قبل به بخش اورژانس aiims مراجعه کرده است. همچنین در 12 ساعت گذشته 5 بار استفراغ داشته است و هیچ سابقه خونریزی از مقعد وجود ندارد. در معاینه، شکم متسع بود و صدای روده شنیده نشد. معاینه مقعد طبیعی بود. عکسبرداری با اشعه ایکس انجام شد و نتایج زیر به دست آمد. گزینه‌های درست را از بین موارد زیر انتخاب کنید: توزیع حلقه‌ها عمدتاً در مرکز، پلیکا سیرکولارس قابل مشاهده نیست، هاوسترا قابل مشاهده نیست، علامت رشته مهره‌ها وجود دارد، شعاع انحنای حلقه‌ها حدود 5-10 میلی‌متر است.</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -26788,7 +26820,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>96265353-bf4c-4cd5-a540-3c0cbc5bb5e4</t>
+          <t>درمان دارویی برای دیسکینزی تاردیو چیست؟</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -26835,7 +26867,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>780cc12b-a444-4fa4-a137-5c14d06dcbb9</t>
+          <t>اگر نرخ رشد سالانه یک جمعیت 1.5-2٪ باشد، چند سال طول می‌کشد تا جمعیت دو برابر شود؟</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -26896,7 +26928,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>993b6518-0ee4-40f8-ab8e-fe99a426b9d3</t>
+          <t>کدام گزینه در مورد جفت سرراهی نادرست است؟</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -26946,7 +26978,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>d92fff6f-1ce3-47fa-8a25-c56a31d38714</t>
+          <t>در یک ویزیت معمول نزد پزشک اطفال 1 هفته پس از تولد، اندازه و دور سر نوزاد در صدک هفتاد و پنجم ثبت می‌شود. اندازه‌گیری تکرار شده 1 ماه بعد همچنان اندازه نوزاد را در صدک هفتاد و پنجم نشان می‌دهد، اما دور سر نوزاد اکنون در صدک نود و پنجم است. پزشک متوجه می‌شود که ملاج جلویی نوزاد سفت است و درزهای جمجمه باز هستند. او یک ام‌آر‌آی از مغز با کنتراست داخل وریدی انجام می‌دهد. این مطالعه نشان‌دهنده وجود بطن‌های جانبی و سوم بسیار گشاد است. مجرای سیلویوس به راحتی قابل مشاهده نیست. بطن چهارم کوچک است. هیچ ضایعه‌ای در فضای زیر عنکبوتیه یا پارانشیم مغزی وجود ندارد. ظاهر ام‌آر‌آی با کدام یک از موارد زیر سازگار است؟</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -27012,7 +27044,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>cdfe6173-d997-4e39-972f-9e1f61451f86</t>
+          <t>یورترال کرست در کجا قرار دارد؟</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -27074,7 +27106,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ea33d718-bcfd-4b46-aa91-f5dc69728772</t>
+          <t>شایع‌ترین نوع هیستولوژیک کارسینوم تیروئید کدام است؟</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -27132,7 +27164,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>42a98d32-e339-43b4-b067-e181f097ab60</t>
+          <t>کدام عضله با ساختار مشخص شده a در ارتباط نیست؟</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -27179,7 +27211,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ff9fc15f-eeda-4ddb-8c31-1730582252e2</t>
+          <t>کدام یک از موارد زیر در مورد غلظت پروتئین‌ها در آب مروارید سنی درست است؟</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -27245,7 +27277,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>82ba1780-e608-4092-b9b2-3a91ff625aae</t>
+          <t>در تصویر رادیوگرافی زیر از یک نوزاد، تشخیص شما چیست؟</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -27297,7 +27329,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>af0f3d51-5db1-4d5d-bb14-80e6e4ad2be6</t>
+          <t>دوره کمون مسمومیت غذایی استافیلوکوکی چند ساعت است؟</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -27347,7 +27379,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>4f3cd244-3697-4cc6-b2e8-c3aba6c1cdd6</t>
+          <t>مفهوم زیست‌پزشکی سلامت بر چه اساسی استوار است؟</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -27398,7 +27430,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>a513f88f-f3a0-4468-97ba-bed51a2ddf88</t>
+          <t>هنگام ثبت قالب فک بالا برای بیمار بی‌دندان، از او خواسته می‌شود که فک پایین را از طرفی به طرف دیگر حرکت دهد تا ثبت شود</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -27447,7 +27479,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>a496c74e-8b17-4736-a5c0-175966355569</t>
+          <t>کدام دارو در اثربخشی قرص های ضدبارداری خوراکی (ocp) اختلال ایجاد نمی کند؟</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -27493,7 +27525,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>cd6ea715-a332-48fa-9ba8-43463d01f429</t>
+          <t>همه موارد زیر در مورد ویروس هانتا صحیح است به جز؟</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -27554,7 +27586,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>26d5f7a1-425e-4ce0-b9d7-34c2b0f2fa57</t>
+          <t>یک خانم 35 ساله از دیسفاژی، پدیده رینود و ظاهر دست‌هایش که در تصویر نشان داده شده است شکایت دارد. آزمایش‌ها ana مثبت را نشان می‌دهند. تشخیص احتمالی چیست؟ &lt;img src=" /&gt;</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -27600,7 +27632,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>f5e6f5c4-4842-4d0a-8d61-3237f18a8645</t>
+          <t>علل کم خونی فقر آهن همگی موارد زیر هستند به جز -</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -27650,7 +27682,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>7ba862e3-2159-4e66-9a58-1583eb85b47e</t>
+          <t>حداکثر افزایش سطح پرولاکتین توسط کدام دارو ایجاد می‌شود؟</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
